--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_11_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_11_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1573522.532743081</v>
+        <v>1543231.503760358</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6251091.318972462</v>
+        <v>6251091.318972465</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8022220.487712181</v>
+        <v>8022220.487712184</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.5096686531243404</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="F2" t="n">
         <v>10.00967878293136</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.5096686531243404</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -749,46 +749,46 @@
         <v>11.94294668035388</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>11.94294668035388</v>
+      </c>
+      <c r="S3" t="n">
         <v>10.5193474360557</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>11.94294668035388</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>10.5193474360557</v>
       </c>
       <c r="F4" t="n">
         <v>11.94294668035388</v>
@@ -834,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,13 +870,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>10.5193474360557</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>10.5193474360557</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,10 +904,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5096686531243404</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>10.00967878293136</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="G5" t="n">
         <v>11.94294668035388</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1025,25 +1025,25 @@
         <v>11.94294668035388</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>10.5193474360557</v>
       </c>
       <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
       <c r="W6" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>10.5193474360557</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1053,58 +1053,58 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="C7" t="n">
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>10.5193474360557</v>
+      </c>
+      <c r="R7" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>10.5193474360557</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5096686531243404</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,10 +1141,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="F8" t="n">
-        <v>10.00967878293136</v>
+        <v>10.5193474360557</v>
       </c>
       <c r="G8" t="n">
         <v>11.94294668035388</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>10.5193474360557</v>
+      </c>
+      <c r="W9" t="n">
         <v>11.94294668035388</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>10.5193474360557</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>11.94294668035388</v>
       </c>
       <c r="Y9" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1290,76 +1290,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="C10" t="n">
         <v>11.94294668035388</v>
       </c>
       <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="E10" t="n">
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
         <v>10.5193474360557</v>
       </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>357.8463083175204</v>
+        <v>37.55611184185324</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G11" t="n">
         <v>410.4434871155996</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>314.136721391124</v>
       </c>
       <c r="I11" t="n">
         <v>113.2811119331022</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>151.1877507841112</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>215.551472561587</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y11" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G12" t="n">
-        <v>126.6389333805806</v>
+        <v>126.63893338058</v>
       </c>
       <c r="H12" t="n">
         <v>91.19012767173828</v>
       </c>
       <c r="I12" t="n">
-        <v>40.0760478450364</v>
+        <v>40.07604784503699</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>9.374591662540446</v>
+        <v>9.374591662540432</v>
       </c>
       <c r="S12" t="n">
         <v>136.3694633427392</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>107.6026003479155</v>
+        <v>51.76795111246145</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>117.7837546691494</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>199.8509778158173</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>227.9733019088003</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1590,10 +1590,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y13" t="n">
         <v>219.8148072196457</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C14" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>231.0281750702492</v>
       </c>
       <c r="F14" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.4434871155996</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>314.136721391124</v>
       </c>
       <c r="I14" t="n">
         <v>113.2811119331022</v>
@@ -1663,16 +1663,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>252.2165261579655</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>3.561220024585748</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.374591662540446</v>
+        <v>9.374591662540432</v>
       </c>
       <c r="S15" t="n">
         <v>136.3694633427392</v>
@@ -1767,16 +1767,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>81.74944804400567</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>199.8509778158173</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>102.6425391363029</v>
       </c>
       <c r="U16" t="n">
         <v>284.2816495190633</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X16" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G17" t="n">
-        <v>410.4434871155996</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>6.558311928990889</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>113.2811119331022</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>151.1877507841112</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>215.551472561587</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>128.8376332715998</v>
       </c>
       <c r="V17" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X17" t="n">
         <v>378.2098390737216</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.374591662540446</v>
+        <v>9.374591662540432</v>
       </c>
       <c r="S18" t="n">
         <v>136.3694633427392</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>72.71599435266499</v>
+        <v>79.93555369317748</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>117.7837546691494</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>199.8509778158173</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9733019088003</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>284.2816495190633</v>
       </c>
       <c r="V19" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y19" t="n">
         <v>219.8148072196457</v>
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2092,16 +2092,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>216.2817327056992</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>309.9946666737064</v>
       </c>
       <c r="H20" t="n">
-        <v>314.136721391124</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>113.2811119331022</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2140,13 +2140,13 @@
         <v>252.2165261579655</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W20" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y20" t="n">
         <v>389.6064368699203</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.374591662540446</v>
+        <v>9.374591662540432</v>
       </c>
       <c r="S21" t="n">
         <v>136.3694633427392</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>11.95035996011877</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2262,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>11.9034262412861</v>
+        <v>11.90342624128609</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>117.7837546691494</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>199.8509778158173</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>227.9733019088003</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>284.2816495190633</v>
       </c>
       <c r="V22" t="n">
-        <v>128.0955722670722</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D23" t="n">
         <v>369.0957251250487</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>151.1877507841112</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>215.551472561587</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>252.2165261579655</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>72.38931487635338</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>358.909580840975</v>
+        <v>293.9303850667495</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y23" t="n">
         <v>389.6064368699203</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>9.374591662540446</v>
+        <v>9.374591662540432</v>
       </c>
       <c r="S24" t="n">
         <v>136.3694633427392</v>
@@ -2478,13 +2478,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>8.249152053247276</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2535,13 +2535,13 @@
         <v>284.2816495190633</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>98.45729360747237</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>128.8829376361744</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D26" t="n">
         <v>369.0957251250487</v>
@@ -2566,7 +2566,7 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F26" t="n">
-        <v>410.0096787829314</v>
+        <v>47.49708340548326</v>
       </c>
       <c r="G26" t="n">
         <v>410.4434871155996</v>
@@ -2575,7 +2575,7 @@
         <v>314.136721391124</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>113.2811119331022</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>9.374591662540446</v>
+        <v>9.374591662540432</v>
       </c>
       <c r="S27" t="n">
         <v>136.3694633427392</v>
@@ -2715,10 +2715,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2736,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>11.9034262412861</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>58.01967895811639</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>284.2816495190633</v>
       </c>
       <c r="V28" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X28" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y28" t="n">
-        <v>219.8148072196457</v>
+        <v>41.62240951566131</v>
       </c>
     </row>
     <row r="29">
@@ -2791,19 +2791,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>390.1031041228389</v>
+        <v>229.9331130714047</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D29" t="n">
-        <v>26.39428641449171</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E29" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G29" t="n">
         <v>410.4434871155996</v>
@@ -2812,7 +2812,7 @@
         <v>314.136721391124</v>
       </c>
       <c r="I29" t="n">
-        <v>113.2811119331022</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,10 +2845,10 @@
         <v>151.1877507841112</v>
       </c>
       <c r="T29" t="n">
-        <v>215.551472561587</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>252.2165261579655</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>333.6094813630181</v>
@@ -2860,7 +2860,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y29" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>57.61120577277033</v>
+        <v>118.9971834700648</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>117.7837546691494</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3009,10 +3009,10 @@
         <v>284.2816495190633</v>
       </c>
       <c r="V31" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3031,7 +3031,7 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C32" t="n">
-        <v>64.31315270065812</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D32" t="n">
         <v>369.0957251250487</v>
@@ -3040,7 +3040,7 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F32" t="n">
-        <v>410.0096787829314</v>
+        <v>325.5577230368121</v>
       </c>
       <c r="G32" t="n">
         <v>410.4434871155996</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>151.1877507841112</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>215.551472561587</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>252.2165261579655</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>333.6094813630181</v>
@@ -3097,7 +3097,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="33">
@@ -3192,22 +3192,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>69.85024570782315</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>122.5339189574214</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>117.7837546691494</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>9.371923490069877</v>
+        <v>199.8509778158173</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>284.2816495190633</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3268,16 +3268,16 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>361.5086816021967</v>
       </c>
       <c r="G35" t="n">
         <v>410.4434871155996</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>113.2811119331022</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,19 +3322,19 @@
         <v>215.551472561587</v>
       </c>
       <c r="U35" t="n">
-        <v>120.5741824342078</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>91.19012767173828</v>
       </c>
       <c r="I36" t="n">
-        <v>40.0760478450364</v>
+        <v>40.07604784503699</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>122.5339189574214</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.366583790724496</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>199.8509778158173</v>
@@ -3480,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>284.2816495190633</v>
+        <v>81.97017762876973</v>
       </c>
       <c r="V37" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3505,13 +3505,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>151.1877507841112</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>215.551472561587</v>
       </c>
       <c r="U38" t="n">
-        <v>252.2165261579655</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W38" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>347.8237339432353</v>
       </c>
       <c r="Y38" t="n">
-        <v>296.0023527786882</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="39">
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>122.5339189574214</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>117.7837546691494</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>199.8509778158173</v>
       </c>
       <c r="T40" t="n">
         <v>227.9733019088003</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>109.71610007282</v>
       </c>
       <c r="V40" t="n">
-        <v>183.4640257694826</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3745,16 +3745,16 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>20.0753456650389</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F41" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.4434871155996</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3793,16 +3793,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>215.551472561587</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>246.8956420730304</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>378.2098390737216</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D43" t="n">
-        <v>151.5411742405149</v>
+        <v>113.2772868101661</v>
       </c>
       <c r="E43" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.5579452058188</v>
       </c>
       <c r="H43" t="n">
         <v>151.7988405018876</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>117.7837546691494</v>
       </c>
       <c r="S43" t="n">
-        <v>199.8509778158173</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>227.9733019088003</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>92.94724586825264</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3991,7 +3991,7 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G44" t="n">
-        <v>410.4434871155996</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>71.77886841295891</v>
       </c>
       <c r="T44" t="n">
         <v>215.551472561587</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>252.2165261579655</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W44" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X44" t="n">
-        <v>214.6619940311525</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4155,10 +4155,10 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>122.5339189574214</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>11.9034262412861</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>117.7837546691494</v>
       </c>
       <c r="S46" t="n">
-        <v>72.69614711557946</v>
+        <v>199.8509778158173</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>200.0524905742221</v>
       </c>
       <c r="U46" t="n">
-        <v>284.2816495190633</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>23.12980488926189</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="C2" t="n">
-        <v>23.12980488926189</v>
+        <v>47.25696990007782</v>
       </c>
       <c r="D2" t="n">
-        <v>23.12980488926189</v>
+        <v>35.19338739466986</v>
       </c>
       <c r="E2" t="n">
         <v>23.12980488926189</v>
@@ -4336,16 +4336,16 @@
         <v>12.77895294797866</v>
       </c>
       <c r="L2" t="n">
-        <v>12.77895294797866</v>
+        <v>24.60247016152901</v>
       </c>
       <c r="M2" t="n">
-        <v>24.60247016152901</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="N2" t="n">
         <v>35.94826950786519</v>
       </c>
       <c r="O2" t="n">
-        <v>35.94826950786519</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="P2" t="n">
         <v>47.77178672141554</v>
@@ -4357,25 +4357,25 @@
         <v>47.77178672141554</v>
       </c>
       <c r="S2" t="n">
-        <v>35.70820421600757</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="T2" t="n">
-        <v>35.70820421600757</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="U2" t="n">
-        <v>35.70820421600757</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="V2" t="n">
-        <v>23.64462171059961</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="W2" t="n">
-        <v>23.64462171059961</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="X2" t="n">
-        <v>23.64462171059961</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="Y2" t="n">
-        <v>23.12980488926189</v>
+        <v>47.77178672141554</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.70820421600757</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="C3" t="n">
-        <v>35.70820421600757</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="D3" t="n">
-        <v>35.70820421600757</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="E3" t="n">
-        <v>23.64462171059961</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="F3" t="n">
-        <v>13.01901823983628</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="G3" t="n">
-        <v>13.01901823983628</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="H3" t="n">
-        <v>13.01901823983628</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="I3" t="n">
         <v>0.9554357344283108</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9554357344283108</v>
+        <v>12.77895294797866</v>
       </c>
       <c r="K3" t="n">
-        <v>12.77895294797866</v>
+        <v>24.60247016152901</v>
       </c>
       <c r="L3" t="n">
-        <v>12.77895294797866</v>
+        <v>36.42598737507935</v>
       </c>
       <c r="M3" t="n">
-        <v>12.77895294797866</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="N3" t="n">
-        <v>24.60247016152901</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="O3" t="n">
-        <v>36.42598737507935</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="P3" t="n">
         <v>47.77178672141554</v>
@@ -4433,28 +4433,28 @@
         <v>47.77178672141554</v>
       </c>
       <c r="R3" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="S3" t="n">
-        <v>47.77178672141554</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="T3" t="n">
-        <v>47.77178672141554</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="U3" t="n">
-        <v>47.77178672141554</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="V3" t="n">
-        <v>47.77178672141554</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="W3" t="n">
-        <v>47.77178672141554</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="X3" t="n">
-        <v>47.77178672141554</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="Y3" t="n">
-        <v>47.77178672141554</v>
+        <v>25.08260074524424</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>47.77178672141554</v>
+      </c>
+      <c r="C4" t="n">
+        <v>47.77178672141554</v>
+      </c>
+      <c r="D4" t="n">
+        <v>47.77178672141554</v>
+      </c>
+      <c r="E4" t="n">
+        <v>37.14618325065221</v>
+      </c>
+      <c r="F4" t="n">
+        <v>25.08260074524424</v>
+      </c>
+      <c r="G4" t="n">
+        <v>25.08260074524424</v>
+      </c>
+      <c r="H4" t="n">
         <v>13.01901823983628</v>
-      </c>
-      <c r="C4" t="n">
-        <v>13.01901823983628</v>
-      </c>
-      <c r="D4" t="n">
-        <v>13.01901823983628</v>
-      </c>
-      <c r="E4" t="n">
-        <v>13.01901823983628</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.9554357344283108</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.9554357344283108</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.9554357344283108</v>
       </c>
       <c r="I4" t="n">
         <v>0.9554357344283108</v>
@@ -4494,16 +4494,16 @@
         <v>12.77895294797866</v>
       </c>
       <c r="L4" t="n">
-        <v>24.12475229431485</v>
+        <v>24.60247016152901</v>
       </c>
       <c r="M4" t="n">
         <v>35.94826950786519</v>
       </c>
       <c r="N4" t="n">
-        <v>47.77178672141554</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="O4" t="n">
-        <v>47.77178672141554</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="P4" t="n">
         <v>47.77178672141554</v>
@@ -4518,22 +4518,22 @@
         <v>47.77178672141554</v>
       </c>
       <c r="T4" t="n">
-        <v>35.70820421600757</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="U4" t="n">
-        <v>35.70820421600757</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="V4" t="n">
-        <v>25.08260074524424</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="W4" t="n">
-        <v>25.08260074524424</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="X4" t="n">
-        <v>25.08260074524424</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="Y4" t="n">
-        <v>13.01901823983628</v>
+        <v>47.77178672141554</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>23.64462171059961</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="C5" t="n">
-        <v>23.64462171059961</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="D5" t="n">
-        <v>23.64462171059961</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="E5" t="n">
-        <v>23.12980488926189</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="F5" t="n">
         <v>13.01901823983628</v>
@@ -4567,25 +4567,25 @@
         <v>0.9554357344283108</v>
       </c>
       <c r="J5" t="n">
-        <v>12.77895294797866</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="K5" t="n">
-        <v>12.77895294797866</v>
+        <v>12.3012350807645</v>
       </c>
       <c r="L5" t="n">
-        <v>24.60247016152901</v>
+        <v>12.3012350807645</v>
       </c>
       <c r="M5" t="n">
-        <v>24.60247016152901</v>
+        <v>12.3012350807645</v>
       </c>
       <c r="N5" t="n">
-        <v>24.60247016152901</v>
+        <v>12.3012350807645</v>
       </c>
       <c r="O5" t="n">
-        <v>24.60247016152901</v>
+        <v>24.12475229431485</v>
       </c>
       <c r="P5" t="n">
-        <v>36.42598737507935</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="Q5" t="n">
         <v>47.77178672141554</v>
@@ -4597,22 +4597,22 @@
         <v>47.77178672141554</v>
       </c>
       <c r="T5" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="U5" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="V5" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="W5" t="n">
         <v>35.70820421600757</v>
       </c>
       <c r="X5" t="n">
-        <v>23.64462171059961</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="Y5" t="n">
-        <v>23.64462171059961</v>
+        <v>35.70820421600757</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="G6" t="n">
         <v>0.9554357344283108</v>
@@ -4649,16 +4649,16 @@
         <v>12.77895294797866</v>
       </c>
       <c r="K6" t="n">
-        <v>12.77895294797866</v>
+        <v>24.12475229431485</v>
       </c>
       <c r="L6" t="n">
-        <v>24.12475229431485</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="M6" t="n">
-        <v>24.12475229431485</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="N6" t="n">
-        <v>24.12475229431485</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="O6" t="n">
         <v>35.94826950786519</v>
@@ -4673,25 +4673,25 @@
         <v>35.70820421600757</v>
       </c>
       <c r="S6" t="n">
-        <v>35.70820421600757</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="T6" t="n">
-        <v>23.64462171059961</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="U6" t="n">
-        <v>23.64462171059961</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="V6" t="n">
-        <v>23.64462171059961</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="W6" t="n">
-        <v>11.58103920519164</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="X6" t="n">
-        <v>11.58103920519164</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23.64462171059961</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="C7" t="n">
-        <v>11.58103920519164</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="D7" t="n">
-        <v>11.58103920519164</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="E7" t="n">
-        <v>11.58103920519164</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="F7" t="n">
-        <v>11.58103920519164</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="G7" t="n">
-        <v>11.58103920519164</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="H7" t="n">
-        <v>11.58103920519164</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="I7" t="n">
-        <v>11.58103920519164</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="J7" t="n">
         <v>0.9554357344283108</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9554357344283108</v>
+        <v>12.77895294797866</v>
       </c>
       <c r="L7" t="n">
-        <v>12.77895294797866</v>
+        <v>24.60247016152901</v>
       </c>
       <c r="M7" t="n">
-        <v>24.60247016152901</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="N7" t="n">
-        <v>36.42598737507935</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="O7" t="n">
-        <v>36.42598737507935</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="P7" t="n">
         <v>47.77178672141554</v>
       </c>
       <c r="Q7" t="n">
-        <v>47.77178672141554</v>
+        <v>37.14618325065221</v>
       </c>
       <c r="R7" t="n">
-        <v>47.77178672141554</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="S7" t="n">
-        <v>47.77178672141554</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="T7" t="n">
-        <v>47.77178672141554</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="U7" t="n">
-        <v>47.77178672141554</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="V7" t="n">
-        <v>47.77178672141554</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="W7" t="n">
-        <v>47.77178672141554</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="X7" t="n">
-        <v>35.70820421600757</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="Y7" t="n">
-        <v>35.70820421600757</v>
+        <v>13.01901823983628</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23.12980488926189</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="C8" t="n">
-        <v>23.12980488926189</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="D8" t="n">
-        <v>23.12980488926189</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="E8" t="n">
-        <v>23.12980488926189</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="F8" t="n">
         <v>13.01901823983628</v>
@@ -4804,22 +4804,22 @@
         <v>0.9554357344283108</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9554357344283108</v>
+        <v>12.3012350807645</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9554357344283108</v>
+        <v>12.3012350807645</v>
       </c>
       <c r="L8" t="n">
-        <v>12.77895294797866</v>
+        <v>24.12475229431485</v>
       </c>
       <c r="M8" t="n">
-        <v>12.77895294797866</v>
+        <v>24.12475229431485</v>
       </c>
       <c r="N8" t="n">
-        <v>12.77895294797866</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="O8" t="n">
-        <v>24.60247016152901</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="P8" t="n">
         <v>35.94826950786519</v>
@@ -4831,25 +4831,25 @@
         <v>47.77178672141554</v>
       </c>
       <c r="S8" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="T8" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="U8" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="V8" t="n">
         <v>35.70820421600757</v>
       </c>
       <c r="W8" t="n">
-        <v>23.64462171059961</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="X8" t="n">
-        <v>23.64462171059961</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="Y8" t="n">
-        <v>23.64462171059961</v>
+        <v>35.70820421600757</v>
       </c>
     </row>
     <row r="9">
@@ -4859,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="I9" t="n">
         <v>0.9554357344283108</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9554357344283108</v>
+        <v>12.77895294797866</v>
       </c>
       <c r="K9" t="n">
-        <v>12.3012350807645</v>
+        <v>12.77895294797866</v>
       </c>
       <c r="L9" t="n">
-        <v>12.3012350807645</v>
+        <v>12.77895294797866</v>
       </c>
       <c r="M9" t="n">
+        <v>12.77895294797866</v>
+      </c>
+      <c r="N9" t="n">
+        <v>12.77895294797866</v>
+      </c>
+      <c r="O9" t="n">
         <v>24.12475229431485</v>
-      </c>
-      <c r="N9" t="n">
-        <v>24.12475229431485</v>
-      </c>
-      <c r="O9" t="n">
-        <v>35.94826950786519</v>
       </c>
       <c r="P9" t="n">
         <v>35.94826950786519</v>
@@ -4907,19 +4907,19 @@
         <v>47.77178672141554</v>
       </c>
       <c r="R9" t="n">
-        <v>35.70820421600757</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="S9" t="n">
-        <v>35.70820421600757</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="T9" t="n">
-        <v>25.08260074524424</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="U9" t="n">
-        <v>25.08260074524424</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="V9" t="n">
-        <v>25.08260074524424</v>
+        <v>37.14618325065221</v>
       </c>
       <c r="W9" t="n">
         <v>25.08260074524424</v>
@@ -4928,7 +4928,7 @@
         <v>13.01901823983628</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>35.70820421600757</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="C10" t="n">
-        <v>23.64462171059961</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="D10" t="n">
-        <v>11.58103920519164</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="J10" t="n">
         <v>0.9554357344283108</v>
@@ -5001,13 +5001,13 @@
         <v>47.77178672141554</v>
       </c>
       <c r="W10" t="n">
-        <v>47.77178672141554</v>
+        <v>37.14618325065221</v>
       </c>
       <c r="X10" t="n">
-        <v>47.77178672141554</v>
+        <v>37.14618325065221</v>
       </c>
       <c r="Y10" t="n">
-        <v>35.70820421600757</v>
+        <v>37.14618325065221</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1312.553097225258</v>
+        <v>1347.664691743783</v>
       </c>
       <c r="C11" t="n">
-        <v>1312.553097225258</v>
+        <v>1347.664691743783</v>
       </c>
       <c r="D11" t="n">
-        <v>939.729132452482</v>
+        <v>1347.664691743783</v>
       </c>
       <c r="E11" t="n">
-        <v>578.2682149600371</v>
+        <v>1309.729225236861</v>
       </c>
       <c r="F11" t="n">
-        <v>578.2682149600371</v>
+        <v>895.5780345470309</v>
       </c>
       <c r="G11" t="n">
-        <v>163.6788340351889</v>
+        <v>480.9886536221828</v>
       </c>
       <c r="H11" t="n">
         <v>163.6788340351889</v>
@@ -5044,49 +5044,49 @@
         <v>247.2441213907261</v>
       </c>
       <c r="K11" t="n">
-        <v>259.038858270432</v>
+        <v>676.2140042495212</v>
       </c>
       <c r="L11" t="n">
-        <v>521.8906878703425</v>
+        <v>1055.473635335333</v>
       </c>
       <c r="M11" t="n">
-        <v>597.2649960248198</v>
+        <v>1130.847943489811</v>
       </c>
       <c r="N11" t="n">
-        <v>1206.776668046505</v>
+        <v>1211.190606059442</v>
       </c>
       <c r="O11" t="n">
-        <v>1761.896899582923</v>
+        <v>1766.310837595861</v>
       </c>
       <c r="P11" t="n">
-        <v>2203.521714177738</v>
+        <v>2207.935652190675</v>
       </c>
       <c r="Q11" t="n">
-        <v>2458.259484296901</v>
+        <v>2462.673422309838</v>
       </c>
       <c r="R11" t="n">
         <v>2462.673422309838</v>
       </c>
       <c r="S11" t="n">
-        <v>2462.673422309838</v>
+        <v>2309.958522527908</v>
       </c>
       <c r="T11" t="n">
-        <v>2462.673422309838</v>
+        <v>2092.229762364689</v>
       </c>
       <c r="U11" t="n">
-        <v>2462.673422309838</v>
+        <v>2092.229762364689</v>
       </c>
       <c r="V11" t="n">
-        <v>2462.673422309838</v>
+        <v>2092.229762364689</v>
       </c>
       <c r="W11" t="n">
-        <v>2100.138492167439</v>
+        <v>1729.69483222229</v>
       </c>
       <c r="X11" t="n">
-        <v>2100.138492167439</v>
+        <v>1347.664691743783</v>
       </c>
       <c r="Y11" t="n">
-        <v>1706.596636743277</v>
+        <v>1347.664691743783</v>
       </c>
     </row>
     <row r="12">
@@ -5111,10 +5111,10 @@
         <v>309.7636794536263</v>
       </c>
       <c r="G12" t="n">
-        <v>181.8455649277874</v>
+        <v>181.845564927788</v>
       </c>
       <c r="H12" t="n">
-        <v>89.73432485532445</v>
+        <v>89.73432485532504</v>
       </c>
       <c r="I12" t="n">
         <v>49.25346844619677</v>
@@ -5123,19 +5123,19 @@
         <v>49.25346844619677</v>
       </c>
       <c r="K12" t="n">
-        <v>66.63263605083129</v>
+        <v>406.99939608602</v>
       </c>
       <c r="L12" t="n">
-        <v>456.4539868970144</v>
+        <v>468.0048963415066</v>
       </c>
       <c r="M12" t="n">
-        <v>1065.965658918699</v>
+        <v>1077.516568363191</v>
       </c>
       <c r="N12" t="n">
-        <v>1675.477330940384</v>
+        <v>1578.438109270832</v>
       </c>
       <c r="O12" t="n">
-        <v>1749.750845502266</v>
+        <v>2159.612428741865</v>
       </c>
       <c r="P12" t="n">
         <v>2203.515355923823</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>327.5589332854412</v>
+        <v>271.1602976940735</v>
       </c>
       <c r="C13" t="n">
-        <v>157.9429637471215</v>
+        <v>101.5443281557538</v>
       </c>
       <c r="D13" t="n">
-        <v>157.9429637471215</v>
+        <v>101.5443281557538</v>
       </c>
       <c r="E13" t="n">
-        <v>157.9429637471215</v>
+        <v>101.5443281557538</v>
       </c>
       <c r="F13" t="n">
-        <v>157.9429637471215</v>
+        <v>101.5443281557538</v>
       </c>
       <c r="G13" t="n">
-        <v>157.9429637471215</v>
+        <v>101.5443281557538</v>
       </c>
       <c r="H13" t="n">
-        <v>157.9429637471215</v>
+        <v>101.5443281557538</v>
       </c>
       <c r="I13" t="n">
         <v>49.25346844619677</v>
@@ -5223,28 +5223,28 @@
         <v>1156.593657701994</v>
       </c>
       <c r="R13" t="n">
-        <v>1037.620168137197</v>
+        <v>1156.593657701994</v>
       </c>
       <c r="S13" t="n">
-        <v>835.7504935757651</v>
+        <v>954.7239831405624</v>
       </c>
       <c r="T13" t="n">
-        <v>835.7504935757651</v>
+        <v>724.4479206064207</v>
       </c>
       <c r="U13" t="n">
-        <v>835.7504935757651</v>
+        <v>724.4479206064207</v>
       </c>
       <c r="V13" t="n">
-        <v>835.7504935757651</v>
+        <v>724.4479206064207</v>
       </c>
       <c r="W13" t="n">
-        <v>549.5940920931641</v>
+        <v>724.4479206064207</v>
       </c>
       <c r="X13" t="n">
-        <v>549.5940920931641</v>
+        <v>493.1954565017965</v>
       </c>
       <c r="Y13" t="n">
-        <v>327.5589332854412</v>
+        <v>271.1602976940735</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1332.587748164988</v>
+        <v>1915.914983009889</v>
       </c>
       <c r="C14" t="n">
-        <v>950.653989497795</v>
+        <v>1915.914983009889</v>
       </c>
       <c r="D14" t="n">
-        <v>577.8300247250186</v>
+        <v>1543.091018237112</v>
       </c>
       <c r="E14" t="n">
-        <v>577.8300247250186</v>
+        <v>1309.729225236861</v>
       </c>
       <c r="F14" t="n">
-        <v>163.6788340351889</v>
+        <v>895.5780345470309</v>
       </c>
       <c r="G14" t="n">
-        <v>163.6788340351889</v>
+        <v>480.9886536221828</v>
       </c>
       <c r="H14" t="n">
         <v>163.6788340351889</v>
@@ -5278,16 +5278,16 @@
         <v>49.25346844619677</v>
       </c>
       <c r="J14" t="n">
-        <v>187.1025804254783</v>
+        <v>247.2441213907261</v>
       </c>
       <c r="K14" t="n">
-        <v>198.8973173051843</v>
+        <v>676.2140042495212</v>
       </c>
       <c r="L14" t="n">
-        <v>781.0423960024433</v>
+        <v>1258.35908294678</v>
       </c>
       <c r="M14" t="n">
-        <v>856.4167041569206</v>
+        <v>1385.585713608974</v>
       </c>
       <c r="N14" t="n">
         <v>1465.928376178606</v>
@@ -5311,19 +5311,19 @@
         <v>2309.958522527908</v>
       </c>
       <c r="U14" t="n">
-        <v>2055.194354691579</v>
+        <v>2309.958522527908</v>
       </c>
       <c r="V14" t="n">
-        <v>1718.21508058752</v>
+        <v>2309.958522527908</v>
       </c>
       <c r="W14" t="n">
-        <v>1714.617888643494</v>
+        <v>2309.958522527908</v>
       </c>
       <c r="X14" t="n">
-        <v>1332.587748164988</v>
+        <v>2309.958522527908</v>
       </c>
       <c r="Y14" t="n">
-        <v>1332.587748164988</v>
+        <v>2309.958522527908</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>892.0277972157131</v>
+        <v>892.0277972157145</v>
       </c>
       <c r="C15" t="n">
-        <v>730.324124456668</v>
+        <v>730.3241244566693</v>
       </c>
       <c r="D15" t="n">
-        <v>591.4854874468799</v>
+        <v>591.4854874468813</v>
       </c>
       <c r="E15" t="n">
-        <v>444.4574775037511</v>
+        <v>444.4574775037524</v>
       </c>
       <c r="F15" t="n">
-        <v>309.7636794536255</v>
+        <v>309.7636794536269</v>
       </c>
       <c r="G15" t="n">
-        <v>181.8455649277871</v>
+        <v>181.845564927788</v>
       </c>
       <c r="H15" t="n">
-        <v>89.73432485532445</v>
+        <v>89.73432485532476</v>
       </c>
       <c r="I15" t="n">
         <v>49.25346844619677</v>
@@ -5366,10 +5366,10 @@
         <v>740.2038440375013</v>
       </c>
       <c r="M15" t="n">
-        <v>827.1218407820679</v>
+        <v>1067.651044551365</v>
       </c>
       <c r="N15" t="n">
-        <v>1436.633512803753</v>
+        <v>1168.576526031233</v>
       </c>
       <c r="O15" t="n">
         <v>1749.750845502266</v>
@@ -5381,28 +5381,28 @@
         <v>2462.673422309838</v>
       </c>
       <c r="R15" t="n">
-        <v>2453.204137802221</v>
+        <v>2453.204137802222</v>
       </c>
       <c r="S15" t="n">
-        <v>2315.457205132788</v>
+        <v>2315.457205132789</v>
       </c>
       <c r="T15" t="n">
-        <v>2130.038523357352</v>
+        <v>2130.038523357353</v>
       </c>
       <c r="U15" t="n">
-        <v>1911.597045787957</v>
+        <v>1911.597045787958</v>
       </c>
       <c r="V15" t="n">
-        <v>1683.201423236291</v>
+        <v>1683.201423236292</v>
       </c>
       <c r="W15" t="n">
-        <v>1441.885554469601</v>
+        <v>1441.885554469602</v>
       </c>
       <c r="X15" t="n">
-        <v>1243.968566347395</v>
+        <v>1243.968566347397</v>
       </c>
       <c r="Y15" t="n">
-        <v>1051.447239996974</v>
+        <v>1051.447239996975</v>
       </c>
     </row>
     <row r="16">
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>353.7431376591009</v>
+        <v>218.8694379845165</v>
       </c>
       <c r="C16" t="n">
-        <v>353.7431376591009</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="D16" t="n">
-        <v>353.7431376591009</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="E16" t="n">
-        <v>201.7341234204196</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="F16" t="n">
         <v>49.25346844619677</v>
@@ -5460,28 +5460,28 @@
         <v>1156.593657701994</v>
       </c>
       <c r="R16" t="n">
-        <v>1074.018457657544</v>
+        <v>1156.593657701994</v>
       </c>
       <c r="S16" t="n">
-        <v>872.1487830961123</v>
+        <v>1156.593657701994</v>
       </c>
       <c r="T16" t="n">
-        <v>872.1487830961123</v>
+        <v>1052.914325241082</v>
       </c>
       <c r="U16" t="n">
-        <v>584.9956017637251</v>
+        <v>765.7611439086947</v>
       </c>
       <c r="V16" t="n">
-        <v>584.9956017637251</v>
+        <v>505.0258394671174</v>
       </c>
       <c r="W16" t="n">
-        <v>584.9956017637251</v>
+        <v>218.8694379845165</v>
       </c>
       <c r="X16" t="n">
-        <v>353.7431376591009</v>
+        <v>218.8694379845165</v>
       </c>
       <c r="Y16" t="n">
-        <v>353.7431376591009</v>
+        <v>218.8694379845165</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>979.6784923579613</v>
+        <v>463.4046591360265</v>
       </c>
       <c r="C17" t="n">
-        <v>979.6784923579613</v>
+        <v>463.4046591360265</v>
       </c>
       <c r="D17" t="n">
-        <v>979.6784923579613</v>
+        <v>463.4046591360265</v>
       </c>
       <c r="E17" t="n">
-        <v>584.8927724640682</v>
+        <v>463.4046591360265</v>
       </c>
       <c r="F17" t="n">
-        <v>584.8927724640682</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="G17" t="n">
-        <v>170.3033915392201</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="H17" t="n">
-        <v>163.6788340351889</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="I17" t="n">
         <v>49.25346844619677</v>
@@ -5518,49 +5518,49 @@
         <v>247.2441213907261</v>
       </c>
       <c r="K17" t="n">
-        <v>259.038858270432</v>
+        <v>676.2140042495212</v>
       </c>
       <c r="L17" t="n">
-        <v>841.183936967691</v>
+        <v>1258.35908294678</v>
       </c>
       <c r="M17" t="n">
-        <v>1266.157703560681</v>
+        <v>1760.661474858772</v>
       </c>
       <c r="N17" t="n">
-        <v>1875.669375582366</v>
+        <v>2370.173146880457</v>
       </c>
       <c r="O17" t="n">
-        <v>2430.789607118784</v>
+        <v>2435.203545131722</v>
       </c>
       <c r="P17" t="n">
-        <v>2458.259484296901</v>
+        <v>2462.673422309838</v>
       </c>
       <c r="Q17" t="n">
-        <v>2458.259484296901</v>
+        <v>2462.673422309838</v>
       </c>
       <c r="R17" t="n">
         <v>2462.673422309838</v>
       </c>
       <c r="S17" t="n">
-        <v>2309.958522527908</v>
+        <v>2462.673422309838</v>
       </c>
       <c r="T17" t="n">
-        <v>2092.229762364689</v>
+        <v>2462.673422309838</v>
       </c>
       <c r="U17" t="n">
-        <v>2092.229762364689</v>
+        <v>2332.534398803172</v>
       </c>
       <c r="V17" t="n">
-        <v>1755.25048826063</v>
+        <v>1995.555124699113</v>
       </c>
       <c r="W17" t="n">
-        <v>1755.25048826063</v>
+        <v>1633.020194556714</v>
       </c>
       <c r="X17" t="n">
-        <v>1373.220347782123</v>
+        <v>1250.990054078208</v>
       </c>
       <c r="Y17" t="n">
-        <v>979.6784923579613</v>
+        <v>857.4481986540457</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>892.0277972157131</v>
+        <v>892.0277972157133</v>
       </c>
       <c r="C18" t="n">
-        <v>730.324124456668</v>
+        <v>730.3241244566681</v>
       </c>
       <c r="D18" t="n">
-        <v>591.4854874468799</v>
+        <v>591.4854874468801</v>
       </c>
       <c r="E18" t="n">
-        <v>444.4574775037511</v>
+        <v>444.4574775037514</v>
       </c>
       <c r="F18" t="n">
-        <v>309.7636794536255</v>
+        <v>309.7636794536257</v>
       </c>
       <c r="G18" t="n">
-        <v>181.8455649277871</v>
+        <v>181.8455649277874</v>
       </c>
       <c r="H18" t="n">
         <v>89.73432485532445</v>
@@ -5594,25 +5594,25 @@
         <v>49.25346844619677</v>
       </c>
       <c r="J18" t="n">
-        <v>49.25346844619677</v>
+        <v>184.5476517718283</v>
       </c>
       <c r="K18" t="n">
-        <v>406.99939608602</v>
+        <v>542.2935794116515</v>
       </c>
       <c r="L18" t="n">
-        <v>945.2764207470584</v>
+        <v>980.7330478067975</v>
       </c>
       <c r="M18" t="n">
-        <v>1032.194417491625</v>
+        <v>1067.651044551364</v>
       </c>
       <c r="N18" t="n">
-        <v>1641.70608951331</v>
+        <v>1168.576526031233</v>
       </c>
       <c r="O18" t="n">
-        <v>2008.908911888281</v>
+        <v>1749.750845502266</v>
       </c>
       <c r="P18" t="n">
-        <v>2462.673422309838</v>
+        <v>2203.515355923823</v>
       </c>
       <c r="Q18" t="n">
         <v>2462.673422309838</v>
@@ -5697,28 +5697,28 @@
         <v>1156.593657701994</v>
       </c>
       <c r="R19" t="n">
-        <v>1037.620168137197</v>
+        <v>1156.593657701994</v>
       </c>
       <c r="S19" t="n">
-        <v>835.7504935757651</v>
+        <v>1156.593657701994</v>
       </c>
       <c r="T19" t="n">
-        <v>605.4744310416233</v>
+        <v>1156.593657701994</v>
       </c>
       <c r="U19" t="n">
-        <v>605.4744310416233</v>
+        <v>869.4404763696068</v>
       </c>
       <c r="V19" t="n">
-        <v>344.7391266000459</v>
+        <v>869.4404763696068</v>
       </c>
       <c r="W19" t="n">
-        <v>344.7391266000459</v>
+        <v>583.284074887006</v>
       </c>
       <c r="X19" t="n">
-        <v>344.7391266000459</v>
+        <v>352.0316107823818</v>
       </c>
       <c r="Y19" t="n">
-        <v>122.703967792323</v>
+        <v>129.9964519746589</v>
       </c>
     </row>
     <row r="20">
@@ -5728,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1081.388808961799</v>
+        <v>362.3793943792335</v>
       </c>
       <c r="C20" t="n">
-        <v>699.4550502946063</v>
+        <v>362.3793943792335</v>
       </c>
       <c r="D20" t="n">
-        <v>699.4550502946063</v>
+        <v>362.3793943792335</v>
       </c>
       <c r="E20" t="n">
-        <v>699.4550502946063</v>
+        <v>362.3793943792335</v>
       </c>
       <c r="F20" t="n">
-        <v>480.9886536221828</v>
+        <v>362.3793943792335</v>
       </c>
       <c r="G20" t="n">
-        <v>480.9886536221828</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="H20" t="n">
-        <v>163.6788340351889</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="I20" t="n">
         <v>49.25346844619677</v>
       </c>
       <c r="J20" t="n">
-        <v>49.25346844619677</v>
+        <v>247.2441213907261</v>
       </c>
       <c r="K20" t="n">
-        <v>61.04820532590273</v>
+        <v>676.2140042495212</v>
       </c>
       <c r="L20" t="n">
-        <v>643.1932840231617</v>
+        <v>1258.35908294678</v>
       </c>
       <c r="M20" t="n">
-        <v>1252.704956044847</v>
+        <v>1381.171775596036</v>
       </c>
       <c r="N20" t="n">
-        <v>1862.216628066532</v>
+        <v>1461.514438165668</v>
       </c>
       <c r="O20" t="n">
-        <v>2176.051836999621</v>
+        <v>2016.634669702086</v>
       </c>
       <c r="P20" t="n">
-        <v>2203.521714177738</v>
+        <v>2458.259484296901</v>
       </c>
       <c r="Q20" t="n">
         <v>2458.259484296901</v>
@@ -5788,16 +5788,16 @@
         <v>1837.46559452836</v>
       </c>
       <c r="V20" t="n">
-        <v>1837.46559452836</v>
+        <v>1500.486320424301</v>
       </c>
       <c r="W20" t="n">
-        <v>1474.930664385961</v>
+        <v>1137.951390281902</v>
       </c>
       <c r="X20" t="n">
-        <v>1474.930664385961</v>
+        <v>755.9212498033955</v>
       </c>
       <c r="Y20" t="n">
-        <v>1081.388808961799</v>
+        <v>362.3793943792335</v>
       </c>
     </row>
     <row r="21">
@@ -5807,43 +5807,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>892.0277972157145</v>
+        <v>892.0277972157136</v>
       </c>
       <c r="C21" t="n">
-        <v>730.3241244566693</v>
+        <v>730.3241244566684</v>
       </c>
       <c r="D21" t="n">
-        <v>591.4854874468813</v>
+        <v>591.4854874468804</v>
       </c>
       <c r="E21" t="n">
-        <v>444.4574775037524</v>
+        <v>444.4574775037515</v>
       </c>
       <c r="F21" t="n">
-        <v>309.7636794536269</v>
+        <v>309.763679453626</v>
       </c>
       <c r="G21" t="n">
-        <v>181.845564927788</v>
+        <v>181.8455649277876</v>
       </c>
       <c r="H21" t="n">
-        <v>89.73432485532476</v>
+        <v>89.73432485532445</v>
       </c>
       <c r="I21" t="n">
         <v>49.25346844619677</v>
       </c>
       <c r="J21" t="n">
-        <v>184.5476517718283</v>
+        <v>84.71009550593624</v>
       </c>
       <c r="K21" t="n">
-        <v>201.9268193764628</v>
+        <v>442.4560231457594</v>
       </c>
       <c r="L21" t="n">
-        <v>456.4539868970144</v>
+        <v>980.7330478067979</v>
       </c>
       <c r="M21" t="n">
-        <v>1065.965658918699</v>
+        <v>1067.651044551365</v>
       </c>
       <c r="N21" t="n">
-        <v>1675.477330940384</v>
+        <v>1168.576526031233</v>
       </c>
       <c r="O21" t="n">
         <v>1749.750845502266</v>
@@ -5858,22 +5858,22 @@
         <v>2453.204137802222</v>
       </c>
       <c r="S21" t="n">
-        <v>2315.457205132789</v>
+        <v>2315.457205132788</v>
       </c>
       <c r="T21" t="n">
-        <v>2130.038523357353</v>
+        <v>2130.038523357352</v>
       </c>
       <c r="U21" t="n">
-        <v>1911.597045787958</v>
+        <v>1911.597045787957</v>
       </c>
       <c r="V21" t="n">
-        <v>1683.201423236292</v>
+        <v>1683.201423236291</v>
       </c>
       <c r="W21" t="n">
-        <v>1441.885554469602</v>
+        <v>1441.885554469601</v>
       </c>
       <c r="X21" t="n">
-        <v>1243.968566347397</v>
+        <v>1243.968566347396</v>
       </c>
       <c r="Y21" t="n">
         <v>1051.447239996975</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>61.27713131618273</v>
+        <v>378.4291093938878</v>
       </c>
       <c r="C22" t="n">
-        <v>61.27713131618273</v>
+        <v>378.4291093938878</v>
       </c>
       <c r="D22" t="n">
-        <v>61.27713131618273</v>
+        <v>225.3572162216505</v>
       </c>
       <c r="E22" t="n">
-        <v>61.27713131618273</v>
+        <v>73.34820198296936</v>
       </c>
       <c r="F22" t="n">
-        <v>61.27713131618273</v>
+        <v>61.27713131618272</v>
       </c>
       <c r="G22" t="n">
-        <v>61.27713131618273</v>
+        <v>61.27713131618272</v>
       </c>
       <c r="H22" t="n">
-        <v>61.27713131618273</v>
+        <v>61.27713131618272</v>
       </c>
       <c r="I22" t="n">
-        <v>61.27713131618273</v>
+        <v>61.27713131618272</v>
       </c>
       <c r="J22" t="n">
         <v>49.25346844619677</v>
@@ -5934,28 +5934,28 @@
         <v>1156.593657701994</v>
       </c>
       <c r="R22" t="n">
-        <v>1037.620168137197</v>
+        <v>1156.593657701994</v>
       </c>
       <c r="S22" t="n">
-        <v>835.7504935757651</v>
+        <v>1156.593657701994</v>
       </c>
       <c r="T22" t="n">
-        <v>605.4744310416233</v>
+        <v>926.3175951678523</v>
       </c>
       <c r="U22" t="n">
-        <v>605.4744310416233</v>
+        <v>639.1644138354652</v>
       </c>
       <c r="V22" t="n">
-        <v>476.0849641051868</v>
+        <v>378.4291093938878</v>
       </c>
       <c r="W22" t="n">
-        <v>476.0849641051868</v>
+        <v>378.4291093938878</v>
       </c>
       <c r="X22" t="n">
-        <v>244.8325000005626</v>
+        <v>378.4291093938878</v>
       </c>
       <c r="Y22" t="n">
-        <v>244.8325000005626</v>
+        <v>378.4291093938878</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1990.437805435924</v>
+        <v>2372.371564103116</v>
       </c>
       <c r="C23" t="n">
         <v>1990.437805435924</v>
@@ -5989,25 +5989,25 @@
         <v>76.77772956758214</v>
       </c>
       <c r="J23" t="n">
-        <v>274.7683825121115</v>
+        <v>274.7683825121117</v>
       </c>
       <c r="K23" t="n">
-        <v>703.7382653709064</v>
+        <v>703.7382653709069</v>
       </c>
       <c r="L23" t="n">
         <v>1285.883344068166</v>
       </c>
       <c r="M23" t="n">
-        <v>1939.781569827918</v>
+        <v>1939.781569827919</v>
       </c>
       <c r="N23" t="n">
-        <v>2582.989724115773</v>
+        <v>2582.989724115774</v>
       </c>
       <c r="O23" t="n">
         <v>3138.109955652192</v>
       </c>
       <c r="P23" t="n">
-        <v>3579.734770247006</v>
+        <v>3579.734770247007</v>
       </c>
       <c r="Q23" t="n">
         <v>3834.472540366169</v>
@@ -6016,25 +6016,25 @@
         <v>3838.886478379107</v>
       </c>
       <c r="S23" t="n">
-        <v>3686.171578597176</v>
+        <v>3838.886478379107</v>
       </c>
       <c r="T23" t="n">
-        <v>3468.442818433957</v>
+        <v>3838.886478379107</v>
       </c>
       <c r="U23" t="n">
-        <v>3213.678650597628</v>
+        <v>3838.886478379107</v>
       </c>
       <c r="V23" t="n">
-        <v>3140.558130520504</v>
+        <v>3838.886478379107</v>
       </c>
       <c r="W23" t="n">
-        <v>2778.023200378105</v>
+        <v>3541.987099523804</v>
       </c>
       <c r="X23" t="n">
-        <v>2778.023200378105</v>
+        <v>3159.956959045297</v>
       </c>
       <c r="Y23" t="n">
-        <v>2384.481344953943</v>
+        <v>2766.415103621136</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>76.77772956758214</v>
       </c>
       <c r="J24" t="n">
-        <v>76.77772956758214</v>
+        <v>212.0719128932137</v>
       </c>
       <c r="K24" t="n">
-        <v>94.15689717221667</v>
+        <v>569.8178405330368</v>
       </c>
       <c r="L24" t="n">
-        <v>155.1623974277032</v>
+        <v>1108.094865194075</v>
       </c>
       <c r="M24" t="n">
-        <v>737.4197362786109</v>
+        <v>1395.024058041346</v>
       </c>
       <c r="N24" t="n">
-        <v>1455.258853538633</v>
+        <v>2112.863175301368</v>
       </c>
       <c r="O24" t="n">
-        <v>2036.433173009666</v>
+        <v>2187.13668986325</v>
       </c>
       <c r="P24" t="n">
-        <v>2490.197683431223</v>
+        <v>2231.039617045208</v>
       </c>
       <c r="Q24" t="n">
         <v>2490.197683431223</v>
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>246.3936991059019</v>
+        <v>85.11020638904404</v>
       </c>
       <c r="C25" t="n">
-        <v>76.77772956758214</v>
+        <v>85.11020638904404</v>
       </c>
       <c r="D25" t="n">
-        <v>76.77772956758214</v>
+        <v>85.11020638904404</v>
       </c>
       <c r="E25" t="n">
         <v>76.77772956758214</v>
@@ -6150,16 +6150,16 @@
         <v>76.77772956758214</v>
       </c>
       <c r="K25" t="n">
-        <v>187.7450525321365</v>
+        <v>187.7450525321366</v>
       </c>
       <c r="L25" t="n">
         <v>387.3503098186578</v>
       </c>
       <c r="M25" t="n">
-        <v>609.7235139585384</v>
+        <v>609.7235139585385</v>
       </c>
       <c r="N25" t="n">
-        <v>830.0436378017822</v>
+        <v>830.0436378017823</v>
       </c>
       <c r="O25" t="n">
         <v>1022.626378694904</v>
@@ -6183,16 +6183,16 @@
         <v>345.8455108306214</v>
       </c>
       <c r="V25" t="n">
-        <v>345.8455108306214</v>
+        <v>85.11020638904404</v>
       </c>
       <c r="W25" t="n">
-        <v>345.8455108306214</v>
+        <v>85.11020638904404</v>
       </c>
       <c r="X25" t="n">
-        <v>246.3936991059019</v>
+        <v>85.11020638904404</v>
       </c>
       <c r="Y25" t="n">
-        <v>246.3936991059019</v>
+        <v>85.11020638904404</v>
       </c>
     </row>
     <row r="26">
@@ -6205,22 +6205,22 @@
         <v>2120.622590927009</v>
       </c>
       <c r="C26" t="n">
-        <v>1990.437805435924</v>
+        <v>1738.688832259817</v>
       </c>
       <c r="D26" t="n">
-        <v>1617.613840663147</v>
+        <v>1365.86486748704</v>
       </c>
       <c r="E26" t="n">
-        <v>1222.828120769254</v>
+        <v>971.0791475931469</v>
       </c>
       <c r="F26" t="n">
-        <v>808.6769300794242</v>
+        <v>923.1022956684163</v>
       </c>
       <c r="G26" t="n">
-        <v>394.087549154576</v>
+        <v>508.5129147435682</v>
       </c>
       <c r="H26" t="n">
-        <v>76.77772956758214</v>
+        <v>191.2030951565743</v>
       </c>
       <c r="I26" t="n">
         <v>76.77772956758214</v>
@@ -6229,16 +6229,16 @@
         <v>274.7683825121117</v>
       </c>
       <c r="K26" t="n">
-        <v>703.7382653709066</v>
+        <v>703.7382653709064</v>
       </c>
       <c r="L26" t="n">
-        <v>1285.883344068166</v>
+        <v>1285.883344068165</v>
       </c>
       <c r="M26" t="n">
-        <v>1939.781569827919</v>
+        <v>1939.781569827918</v>
       </c>
       <c r="N26" t="n">
-        <v>2582.989724115774</v>
+        <v>2582.989724115773</v>
       </c>
       <c r="O26" t="n">
         <v>3138.109955652192</v>
@@ -6247,19 +6247,19 @@
         <v>3579.734770247007</v>
       </c>
       <c r="Q26" t="n">
-        <v>3834.472540366169</v>
+        <v>3834.47254036617</v>
       </c>
       <c r="R26" t="n">
         <v>3838.886478379107</v>
       </c>
       <c r="S26" t="n">
-        <v>3686.171578597176</v>
+        <v>3686.171578597177</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.442818433957</v>
+        <v>3468.442818433958</v>
       </c>
       <c r="U26" t="n">
-        <v>3213.678650597628</v>
+        <v>3213.678650597629</v>
       </c>
       <c r="V26" t="n">
         <v>2876.69937649357</v>
@@ -6305,25 +6305,25 @@
         <v>76.77772956758214</v>
       </c>
       <c r="J27" t="n">
-        <v>76.77772956758214</v>
+        <v>212.0719128932137</v>
       </c>
       <c r="K27" t="n">
-        <v>94.15689717221667</v>
+        <v>569.8178405330368</v>
       </c>
       <c r="L27" t="n">
-        <v>155.1623974277032</v>
+        <v>1108.094865194075</v>
       </c>
       <c r="M27" t="n">
-        <v>737.4197362786109</v>
+        <v>1195.012861938642</v>
       </c>
       <c r="N27" t="n">
-        <v>1455.258853538633</v>
+        <v>1295.938343418511</v>
       </c>
       <c r="O27" t="n">
-        <v>2036.433173009666</v>
+        <v>1777.275106623651</v>
       </c>
       <c r="P27" t="n">
-        <v>2490.197683431223</v>
+        <v>2231.039617045208</v>
       </c>
       <c r="Q27" t="n">
         <v>2490.197683431223</v>
@@ -6360,43 +6360,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>411.4892551481251</v>
+        <v>76.77772956758214</v>
       </c>
       <c r="C28" t="n">
-        <v>241.8732856098054</v>
+        <v>76.77772956758214</v>
       </c>
       <c r="D28" t="n">
-        <v>88.8013924375681</v>
+        <v>76.77772956758214</v>
       </c>
       <c r="E28" t="n">
-        <v>88.8013924375681</v>
+        <v>76.77772956758214</v>
       </c>
       <c r="F28" t="n">
-        <v>88.8013924375681</v>
+        <v>76.77772956758214</v>
       </c>
       <c r="G28" t="n">
-        <v>88.8013924375681</v>
+        <v>76.77772956758214</v>
       </c>
       <c r="H28" t="n">
-        <v>88.8013924375681</v>
+        <v>76.77772956758214</v>
       </c>
       <c r="I28" t="n">
-        <v>88.8013924375681</v>
+        <v>76.77772956758214</v>
       </c>
       <c r="J28" t="n">
         <v>76.77772956758214</v>
       </c>
       <c r="K28" t="n">
-        <v>187.7450525321365</v>
+        <v>187.7450525321366</v>
       </c>
       <c r="L28" t="n">
         <v>387.3503098186578</v>
       </c>
       <c r="M28" t="n">
-        <v>609.7235139585384</v>
+        <v>609.7235139585385</v>
       </c>
       <c r="N28" t="n">
-        <v>830.0436378017822</v>
+        <v>830.0436378017823</v>
       </c>
       <c r="O28" t="n">
         <v>1022.626378694904</v>
@@ -6414,22 +6414,22 @@
         <v>1184.117918823379</v>
       </c>
       <c r="T28" t="n">
-        <v>1125.51218250205</v>
+        <v>1184.117918823379</v>
       </c>
       <c r="U28" t="n">
-        <v>1125.51218250205</v>
+        <v>896.9647374909921</v>
       </c>
       <c r="V28" t="n">
-        <v>864.7768780604722</v>
+        <v>636.2294330494146</v>
       </c>
       <c r="W28" t="n">
-        <v>864.7768780604722</v>
+        <v>350.0730315668138</v>
       </c>
       <c r="X28" t="n">
-        <v>633.524413955848</v>
+        <v>118.8205674621895</v>
       </c>
       <c r="Y28" t="n">
-        <v>411.4892551481251</v>
+        <v>76.77772956758214</v>
       </c>
     </row>
     <row r="29">
@@ -6439,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1344.548910930483</v>
+        <v>2372.371564103116</v>
       </c>
       <c r="C29" t="n">
-        <v>1344.548910930483</v>
+        <v>1990.437805435924</v>
       </c>
       <c r="D29" t="n">
-        <v>1317.888015562309</v>
+        <v>1617.613840663147</v>
       </c>
       <c r="E29" t="n">
-        <v>923.1022956684163</v>
+        <v>1222.828120769254</v>
       </c>
       <c r="F29" t="n">
-        <v>923.1022956684163</v>
+        <v>808.6769300794242</v>
       </c>
       <c r="G29" t="n">
-        <v>508.5129147435682</v>
+        <v>394.087549154576</v>
       </c>
       <c r="H29" t="n">
-        <v>191.2030951565743</v>
+        <v>76.77772956758214</v>
       </c>
       <c r="I29" t="n">
         <v>76.77772956758214</v>
       </c>
       <c r="J29" t="n">
-        <v>274.7683825121117</v>
+        <v>274.7683825121112</v>
       </c>
       <c r="K29" t="n">
-        <v>703.7382653709066</v>
+        <v>703.738265370906</v>
       </c>
       <c r="L29" t="n">
-        <v>1285.883344068166</v>
+        <v>1285.883344068165</v>
       </c>
       <c r="M29" t="n">
-        <v>1939.781569827919</v>
+        <v>1939.781569827918</v>
       </c>
       <c r="N29" t="n">
-        <v>2582.989724115774</v>
+        <v>2582.989724115773</v>
       </c>
       <c r="O29" t="n">
-        <v>3138.109955652192</v>
+        <v>3138.109955652191</v>
       </c>
       <c r="P29" t="n">
         <v>3579.734770247006</v>
@@ -6493,22 +6493,22 @@
         <v>3686.171578597176</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.442818433957</v>
+        <v>3686.171578597176</v>
       </c>
       <c r="U29" t="n">
-        <v>3213.678650597628</v>
+        <v>3686.171578597176</v>
       </c>
       <c r="V29" t="n">
-        <v>2876.69937649357</v>
+        <v>3349.192304493118</v>
       </c>
       <c r="W29" t="n">
-        <v>2514.164446351171</v>
+        <v>2986.657374350719</v>
       </c>
       <c r="X29" t="n">
-        <v>2132.134305872664</v>
+        <v>2604.627233872212</v>
       </c>
       <c r="Y29" t="n">
-        <v>1738.592450448502</v>
+        <v>2604.627233872212</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>76.77772956758214</v>
       </c>
       <c r="J30" t="n">
-        <v>76.77772956758214</v>
+        <v>212.0719128932137</v>
       </c>
       <c r="K30" t="n">
-        <v>434.5236572074053</v>
+        <v>569.8178405330368</v>
       </c>
       <c r="L30" t="n">
-        <v>495.5291574628919</v>
+        <v>1108.094865194075</v>
       </c>
       <c r="M30" t="n">
-        <v>737.4197362786109</v>
+        <v>1195.012861938642</v>
       </c>
       <c r="N30" t="n">
-        <v>1455.258853538633</v>
+        <v>1295.938343418511</v>
       </c>
       <c r="O30" t="n">
-        <v>2036.433173009666</v>
+        <v>1777.275106623651</v>
       </c>
       <c r="P30" t="n">
-        <v>2490.197683431223</v>
+        <v>2231.039617045208</v>
       </c>
       <c r="Q30" t="n">
         <v>2490.197683431223</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>286.9798809504758</v>
+        <v>196.9769047898698</v>
       </c>
       <c r="C31" t="n">
-        <v>286.9798809504758</v>
+        <v>196.9769047898698</v>
       </c>
       <c r="D31" t="n">
-        <v>286.9798809504758</v>
+        <v>196.9769047898698</v>
       </c>
       <c r="E31" t="n">
-        <v>134.9708667117946</v>
+        <v>196.9769047898698</v>
       </c>
       <c r="F31" t="n">
         <v>76.77772956758214</v>
@@ -6645,28 +6645,28 @@
         <v>1184.117918823379</v>
       </c>
       <c r="R31" t="n">
-        <v>1065.144429258582</v>
+        <v>1184.117918823379</v>
       </c>
       <c r="S31" t="n">
-        <v>1065.144429258582</v>
+        <v>1184.117918823379</v>
       </c>
       <c r="T31" t="n">
-        <v>834.8683667244403</v>
+        <v>953.8418562892376</v>
       </c>
       <c r="U31" t="n">
-        <v>547.7151853920532</v>
+        <v>666.6886749568505</v>
       </c>
       <c r="V31" t="n">
-        <v>286.9798809504758</v>
+        <v>666.6886749568505</v>
       </c>
       <c r="W31" t="n">
-        <v>286.9798809504758</v>
+        <v>380.5322734742496</v>
       </c>
       <c r="X31" t="n">
-        <v>286.9798809504758</v>
+        <v>380.5322734742496</v>
       </c>
       <c r="Y31" t="n">
-        <v>286.9798809504758</v>
+        <v>380.5322734742496</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1738.090766354645</v>
+        <v>1969.756738711961</v>
       </c>
       <c r="C32" t="n">
-        <v>1673.127985848929</v>
+        <v>1587.822980044769</v>
       </c>
       <c r="D32" t="n">
-        <v>1300.304021076153</v>
+        <v>1214.999015271992</v>
       </c>
       <c r="E32" t="n">
-        <v>905.5183011822598</v>
+        <v>820.213295378099</v>
       </c>
       <c r="F32" t="n">
         <v>491.3671104924302</v>
@@ -6700,10 +6700,10 @@
         <v>76.77772956758214</v>
       </c>
       <c r="J32" t="n">
-        <v>274.7683825121112</v>
+        <v>274.7683825121115</v>
       </c>
       <c r="K32" t="n">
-        <v>703.738265370906</v>
+        <v>703.7382653709064</v>
       </c>
       <c r="L32" t="n">
         <v>1285.883344068165</v>
@@ -6715,7 +6715,7 @@
         <v>2582.989724115773</v>
       </c>
       <c r="O32" t="n">
-        <v>3138.109955652191</v>
+        <v>3138.109955652192</v>
       </c>
       <c r="P32" t="n">
         <v>3579.734770247006</v>
@@ -6727,25 +6727,25 @@
         <v>3838.886478379107</v>
       </c>
       <c r="S32" t="n">
-        <v>3686.171578597176</v>
+        <v>3838.886478379107</v>
       </c>
       <c r="T32" t="n">
-        <v>3468.442818433957</v>
+        <v>3838.886478379107</v>
       </c>
       <c r="U32" t="n">
-        <v>3213.678650597628</v>
+        <v>3838.886478379107</v>
       </c>
       <c r="V32" t="n">
-        <v>2876.69937649357</v>
+        <v>3501.907204275048</v>
       </c>
       <c r="W32" t="n">
-        <v>2514.164446351171</v>
+        <v>3139.372274132649</v>
       </c>
       <c r="X32" t="n">
-        <v>2132.134305872664</v>
+        <v>2757.342133654142</v>
       </c>
       <c r="Y32" t="n">
-        <v>2132.134305872664</v>
+        <v>2363.80027822998</v>
       </c>
     </row>
     <row r="33">
@@ -6782,16 +6782,16 @@
         <v>212.0719128932137</v>
       </c>
       <c r="K33" t="n">
-        <v>229.4510804978482</v>
+        <v>569.8178405330368</v>
       </c>
       <c r="L33" t="n">
-        <v>408.8948918819327</v>
+        <v>1108.094865194075</v>
       </c>
       <c r="M33" t="n">
-        <v>1095.175305672749</v>
+        <v>1195.012861938642</v>
       </c>
       <c r="N33" t="n">
-        <v>1196.100787152618</v>
+        <v>1295.938343418511</v>
       </c>
       <c r="O33" t="n">
         <v>1777.275106623651</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>76.77772956758214</v>
+        <v>576.6577167698449</v>
       </c>
       <c r="C34" t="n">
-        <v>76.77772956758214</v>
+        <v>576.6577167698449</v>
       </c>
       <c r="D34" t="n">
-        <v>76.77772956758214</v>
+        <v>423.5858235976076</v>
       </c>
       <c r="E34" t="n">
-        <v>76.77772956758214</v>
+        <v>423.5858235976076</v>
       </c>
       <c r="F34" t="n">
-        <v>76.77772956758214</v>
+        <v>271.1051686233847</v>
       </c>
       <c r="G34" t="n">
-        <v>76.77772956758214</v>
+        <v>271.1051686233847</v>
       </c>
       <c r="H34" t="n">
-        <v>76.77772956758214</v>
+        <v>200.5493648781088</v>
       </c>
       <c r="I34" t="n">
         <v>76.77772956758214</v>
@@ -6882,28 +6882,28 @@
         <v>1184.117918823379</v>
       </c>
       <c r="R34" t="n">
-        <v>1065.144429258582</v>
+        <v>1184.117918823379</v>
       </c>
       <c r="S34" t="n">
-        <v>1055.677839874673</v>
+        <v>982.2482442619477</v>
       </c>
       <c r="T34" t="n">
-        <v>1055.677839874673</v>
+        <v>982.2482442619477</v>
       </c>
       <c r="U34" t="n">
-        <v>768.5246585422858</v>
+        <v>982.2482442619477</v>
       </c>
       <c r="V34" t="n">
-        <v>768.5246585422858</v>
+        <v>982.2482442619477</v>
       </c>
       <c r="W34" t="n">
-        <v>482.3682570596849</v>
+        <v>982.2482442619477</v>
       </c>
       <c r="X34" t="n">
-        <v>482.3682570596849</v>
+        <v>982.2482442619477</v>
       </c>
       <c r="Y34" t="n">
-        <v>260.333098251962</v>
+        <v>760.2130854542247</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>463.8428493710448</v>
+        <v>1698.18622284667</v>
       </c>
       <c r="C35" t="n">
-        <v>463.8428493710448</v>
+        <v>1316.252464179477</v>
       </c>
       <c r="D35" t="n">
-        <v>463.8428493710448</v>
+        <v>943.4284994067004</v>
       </c>
       <c r="E35" t="n">
-        <v>463.8428493710448</v>
+        <v>943.4284994067004</v>
       </c>
       <c r="F35" t="n">
-        <v>463.8428493710448</v>
+        <v>578.2682149600371</v>
       </c>
       <c r="G35" t="n">
-        <v>49.25346844619676</v>
+        <v>163.6788340351889</v>
       </c>
       <c r="H35" t="n">
-        <v>49.25346844619676</v>
+        <v>163.6788340351889</v>
       </c>
       <c r="I35" t="n">
-        <v>49.25346844619676</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="J35" t="n">
-        <v>49.25346844619676</v>
+        <v>247.2441213907261</v>
       </c>
       <c r="K35" t="n">
-        <v>478.2233513049917</v>
+        <v>676.2140042495211</v>
       </c>
       <c r="L35" t="n">
-        <v>940.4595632999783</v>
+        <v>1258.35908294678</v>
       </c>
       <c r="M35" t="n">
-        <v>1015.833871454456</v>
+        <v>1616.523838762027</v>
       </c>
       <c r="N35" t="n">
-        <v>1625.34554347614</v>
+        <v>1696.866501331658</v>
       </c>
       <c r="O35" t="n">
-        <v>2180.465775012558</v>
+        <v>1761.896899582923</v>
       </c>
       <c r="P35" t="n">
-        <v>2207.935652190675</v>
+        <v>2203.521714177738</v>
       </c>
       <c r="Q35" t="n">
-        <v>2462.673422309838</v>
+        <v>2458.259484296901</v>
       </c>
       <c r="R35" t="n">
         <v>2462.673422309838</v>
       </c>
       <c r="S35" t="n">
-        <v>2309.958522527907</v>
+        <v>2309.958522527908</v>
       </c>
       <c r="T35" t="n">
-        <v>2092.229762364688</v>
+        <v>2092.229762364689</v>
       </c>
       <c r="U35" t="n">
-        <v>1970.437658895791</v>
+        <v>2092.229762364689</v>
       </c>
       <c r="V35" t="n">
-        <v>1633.458384791733</v>
+        <v>2092.229762364689</v>
       </c>
       <c r="W35" t="n">
-        <v>1633.458384791733</v>
+        <v>2092.229762364689</v>
       </c>
       <c r="X35" t="n">
-        <v>1251.428244313226</v>
+        <v>2092.229762364689</v>
       </c>
       <c r="Y35" t="n">
-        <v>857.8863888890639</v>
+        <v>2092.229762364689</v>
       </c>
     </row>
     <row r="36">
@@ -6992,43 +6992,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>892.0277972157131</v>
+        <v>892.0277972157139</v>
       </c>
       <c r="C36" t="n">
-        <v>730.324124456668</v>
+        <v>730.3241244566686</v>
       </c>
       <c r="D36" t="n">
-        <v>591.4854874468799</v>
+        <v>591.4854874468807</v>
       </c>
       <c r="E36" t="n">
-        <v>444.4574775037511</v>
+        <v>444.4574775037519</v>
       </c>
       <c r="F36" t="n">
-        <v>309.7636794536255</v>
+        <v>309.7636794536263</v>
       </c>
       <c r="G36" t="n">
-        <v>181.8455649277872</v>
+        <v>181.845564927788</v>
       </c>
       <c r="H36" t="n">
-        <v>89.7343248553243</v>
+        <v>89.73432485532504</v>
       </c>
       <c r="I36" t="n">
-        <v>49.25346844619676</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="J36" t="n">
         <v>184.5476517718283</v>
       </c>
       <c r="K36" t="n">
-        <v>201.9268193764628</v>
+        <v>542.2935794116515</v>
       </c>
       <c r="L36" t="n">
-        <v>472.1468572649813</v>
+        <v>1080.57060407269</v>
       </c>
       <c r="M36" t="n">
-        <v>559.064854009548</v>
+        <v>1167.488600817257</v>
       </c>
       <c r="N36" t="n">
-        <v>1168.576526031233</v>
+        <v>1268.414082297125</v>
       </c>
       <c r="O36" t="n">
         <v>1749.750845502266</v>
@@ -7040,7 +7040,7 @@
         <v>2462.673422309838</v>
       </c>
       <c r="R36" t="n">
-        <v>2453.204137802221</v>
+        <v>2453.204137802222</v>
       </c>
       <c r="S36" t="n">
         <v>2315.457205132788</v>
@@ -7058,10 +7058,10 @@
         <v>1441.885554469601</v>
       </c>
       <c r="X36" t="n">
-        <v>1243.968566347395</v>
+        <v>1243.968566347396</v>
       </c>
       <c r="Y36" t="n">
-        <v>1051.447239996974</v>
+        <v>1051.447239996975</v>
       </c>
     </row>
     <row r="37">
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>218.8694379845165</v>
+        <v>325.0341179954046</v>
       </c>
       <c r="C37" t="n">
-        <v>49.25346844619676</v>
+        <v>325.0341179954046</v>
       </c>
       <c r="D37" t="n">
-        <v>49.25346844619676</v>
+        <v>325.0341179954046</v>
       </c>
       <c r="E37" t="n">
-        <v>49.25346844619676</v>
+        <v>173.0251037567234</v>
       </c>
       <c r="F37" t="n">
-        <v>49.25346844619676</v>
+        <v>173.0251037567234</v>
       </c>
       <c r="G37" t="n">
-        <v>49.25346844619676</v>
+        <v>173.0251037567234</v>
       </c>
       <c r="H37" t="n">
-        <v>49.25346844619676</v>
+        <v>173.0251037567234</v>
       </c>
       <c r="I37" t="n">
-        <v>49.25346844619676</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="J37" t="n">
-        <v>49.25346844619676</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="K37" t="n">
         <v>160.2207914107512</v>
@@ -7119,28 +7119,28 @@
         <v>1156.593657701994</v>
       </c>
       <c r="R37" t="n">
-        <v>1152.182967004293</v>
+        <v>1156.593657701994</v>
       </c>
       <c r="S37" t="n">
-        <v>950.313292442861</v>
+        <v>954.7239831405624</v>
       </c>
       <c r="T37" t="n">
-        <v>950.313292442861</v>
+        <v>954.7239831405624</v>
       </c>
       <c r="U37" t="n">
-        <v>663.1601111104737</v>
+        <v>871.9258239195829</v>
       </c>
       <c r="V37" t="n">
-        <v>402.4248066688963</v>
+        <v>611.1905194780054</v>
       </c>
       <c r="W37" t="n">
-        <v>402.4248066688963</v>
+        <v>325.0341179954046</v>
       </c>
       <c r="X37" t="n">
-        <v>402.4248066688963</v>
+        <v>325.0341179954046</v>
       </c>
       <c r="Y37" t="n">
-        <v>402.4248066688963</v>
+        <v>325.0341179954046</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1175.938388851932</v>
+        <v>1163.086427625231</v>
       </c>
       <c r="C38" t="n">
-        <v>1175.938388851932</v>
+        <v>781.1526689580388</v>
       </c>
       <c r="D38" t="n">
-        <v>1175.938388851932</v>
+        <v>781.1526689580388</v>
       </c>
       <c r="E38" t="n">
-        <v>781.1526689580387</v>
+        <v>781.1526689580388</v>
       </c>
       <c r="F38" t="n">
-        <v>781.1526689580387</v>
+        <v>781.1526689580388</v>
       </c>
       <c r="G38" t="n">
-        <v>366.5632880331906</v>
+        <v>366.5632880331907</v>
       </c>
       <c r="H38" t="n">
-        <v>49.25346844619676</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="I38" t="n">
-        <v>49.25346844619676</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="J38" t="n">
-        <v>49.25346844619676</v>
+        <v>247.2441213907261</v>
       </c>
       <c r="K38" t="n">
-        <v>478.2233513049917</v>
+        <v>676.2140042495211</v>
       </c>
       <c r="L38" t="n">
-        <v>1060.368430002251</v>
+        <v>1051.059697322396</v>
       </c>
       <c r="M38" t="n">
-        <v>1135.742738156728</v>
+        <v>1126.434005476873</v>
       </c>
       <c r="N38" t="n">
-        <v>1745.254410178413</v>
+        <v>1206.776668046505</v>
       </c>
       <c r="O38" t="n">
-        <v>2176.051836999621</v>
+        <v>1761.896899582923</v>
       </c>
       <c r="P38" t="n">
-        <v>2203.521714177737</v>
+        <v>2203.521714177738</v>
       </c>
       <c r="Q38" t="n">
-        <v>2458.2594842969</v>
+        <v>2458.259484296901</v>
       </c>
       <c r="R38" t="n">
         <v>2462.673422309838</v>
       </c>
       <c r="S38" t="n">
-        <v>2309.958522527907</v>
+        <v>2462.673422309838</v>
       </c>
       <c r="T38" t="n">
-        <v>2092.229762364688</v>
+        <v>2244.944662146619</v>
       </c>
       <c r="U38" t="n">
-        <v>1837.465594528359</v>
+        <v>2244.944662146619</v>
       </c>
       <c r="V38" t="n">
-        <v>1837.465594528359</v>
+        <v>1907.96538804256</v>
       </c>
       <c r="W38" t="n">
-        <v>1474.93066438596</v>
+        <v>1907.96538804256</v>
       </c>
       <c r="X38" t="n">
-        <v>1474.93066438596</v>
+        <v>1556.628283049393</v>
       </c>
       <c r="Y38" t="n">
-        <v>1175.938388851932</v>
+        <v>1163.086427625231</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>892.0277972157133</v>
+        <v>892.0277972157131</v>
       </c>
       <c r="C39" t="n">
-        <v>730.3241244566681</v>
+        <v>730.324124456668</v>
       </c>
       <c r="D39" t="n">
-        <v>591.4854874468801</v>
+        <v>591.4854874468799</v>
       </c>
       <c r="E39" t="n">
-        <v>444.4574775037513</v>
+        <v>444.4574775037511</v>
       </c>
       <c r="F39" t="n">
-        <v>309.7636794536257</v>
+        <v>309.7636794536255</v>
       </c>
       <c r="G39" t="n">
-        <v>181.8455649277873</v>
+        <v>181.8455649277871</v>
       </c>
       <c r="H39" t="n">
-        <v>89.73432485532443</v>
+        <v>89.73432485532445</v>
       </c>
       <c r="I39" t="n">
-        <v>49.25346844619676</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="J39" t="n">
         <v>184.5476517718283</v>
@@ -7259,19 +7259,19 @@
         <v>542.2935794116515</v>
       </c>
       <c r="L39" t="n">
-        <v>603.2990796671381</v>
+        <v>980.7330478067979</v>
       </c>
       <c r="M39" t="n">
-        <v>1212.810751688823</v>
+        <v>1067.651044551365</v>
       </c>
       <c r="N39" t="n">
-        <v>1427.734592417248</v>
+        <v>1168.576526031233</v>
       </c>
       <c r="O39" t="n">
-        <v>2008.908911888281</v>
+        <v>1749.750845502266</v>
       </c>
       <c r="P39" t="n">
-        <v>2462.673422309838</v>
+        <v>2203.515355923823</v>
       </c>
       <c r="Q39" t="n">
         <v>2462.673422309838</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1355.333233054041</v>
+        <v>494.6500875337243</v>
       </c>
       <c r="C40" t="n">
-        <v>1355.333233054041</v>
+        <v>325.0341179954046</v>
       </c>
       <c r="D40" t="n">
-        <v>1355.333233054041</v>
+        <v>325.0341179954046</v>
       </c>
       <c r="E40" t="n">
-        <v>1355.333233054041</v>
+        <v>173.0251037567234</v>
       </c>
       <c r="F40" t="n">
-        <v>1355.333233054041</v>
+        <v>173.0251037567234</v>
       </c>
       <c r="G40" t="n">
-        <v>1355.333233054041</v>
+        <v>173.0251037567234</v>
       </c>
       <c r="H40" t="n">
-        <v>1355.333233054041</v>
+        <v>173.0251037567234</v>
       </c>
       <c r="I40" t="n">
-        <v>1355.333233054041</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="J40" t="n">
-        <v>1355.333233054041</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="K40" t="n">
-        <v>1466.300556018595</v>
+        <v>160.2207914107512</v>
       </c>
       <c r="L40" t="n">
-        <v>1665.905813305116</v>
+        <v>359.8260486972724</v>
       </c>
       <c r="M40" t="n">
-        <v>1888.279017444997</v>
+        <v>582.1992528371532</v>
       </c>
       <c r="N40" t="n">
-        <v>2108.599141288241</v>
+        <v>802.5193766803969</v>
       </c>
       <c r="O40" t="n">
-        <v>2301.181882181362</v>
+        <v>995.1021175735183</v>
       </c>
       <c r="P40" t="n">
-        <v>2444.685510742497</v>
+        <v>1138.605746134653</v>
       </c>
       <c r="Q40" t="n">
-        <v>2462.673422309838</v>
+        <v>1156.593657701994</v>
       </c>
       <c r="R40" t="n">
-        <v>2462.673422309838</v>
+        <v>1037.620168137197</v>
       </c>
       <c r="S40" t="n">
-        <v>2462.673422309838</v>
+        <v>835.7504935757651</v>
       </c>
       <c r="T40" t="n">
-        <v>2232.397359775696</v>
+        <v>605.4744310416233</v>
       </c>
       <c r="U40" t="n">
-        <v>2232.397359775696</v>
+        <v>494.6500875337243</v>
       </c>
       <c r="V40" t="n">
-        <v>2047.080162028744</v>
+        <v>494.6500875337243</v>
       </c>
       <c r="W40" t="n">
-        <v>1760.923760546143</v>
+        <v>494.6500875337243</v>
       </c>
       <c r="X40" t="n">
-        <v>1760.923760546143</v>
+        <v>494.6500875337243</v>
       </c>
       <c r="Y40" t="n">
-        <v>1538.88860173842</v>
+        <v>494.6500875337243</v>
       </c>
     </row>
     <row r="41">
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>463.4046591360264</v>
+        <v>1293.05788688915</v>
       </c>
       <c r="C41" t="n">
-        <v>463.4046591360264</v>
+        <v>1293.05788688915</v>
       </c>
       <c r="D41" t="n">
-        <v>463.4046591360264</v>
+        <v>1272.779759954768</v>
       </c>
       <c r="E41" t="n">
-        <v>463.4046591360264</v>
+        <v>877.9940400608746</v>
       </c>
       <c r="F41" t="n">
-        <v>49.25346844619676</v>
+        <v>463.8428493710449</v>
       </c>
       <c r="G41" t="n">
-        <v>49.25346844619676</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="H41" t="n">
-        <v>49.25346844619676</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="I41" t="n">
-        <v>49.25346844619676</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="J41" t="n">
-        <v>247.2441213907261</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="K41" t="n">
-        <v>259.038858270432</v>
+        <v>61.04820532590273</v>
       </c>
       <c r="L41" t="n">
-        <v>841.183936967691</v>
+        <v>526.3046258832802</v>
       </c>
       <c r="M41" t="n">
-        <v>916.5582451221683</v>
+        <v>601.6789340377575</v>
       </c>
       <c r="N41" t="n">
-        <v>1526.069917143853</v>
+        <v>1211.190606059442</v>
       </c>
       <c r="O41" t="n">
-        <v>2081.190148680271</v>
+        <v>1766.310837595861</v>
       </c>
       <c r="P41" t="n">
-        <v>2203.521714177737</v>
+        <v>2207.935652190675</v>
       </c>
       <c r="Q41" t="n">
-        <v>2458.2594842969</v>
+        <v>2462.673422309838</v>
       </c>
       <c r="R41" t="n">
         <v>2462.673422309838</v>
@@ -7441,22 +7441,22 @@
         <v>2462.673422309838</v>
       </c>
       <c r="T41" t="n">
-        <v>2244.944662146619</v>
+        <v>2462.673422309838</v>
       </c>
       <c r="U41" t="n">
-        <v>2244.944662146619</v>
+        <v>2462.673422309838</v>
       </c>
       <c r="V41" t="n">
-        <v>1995.555124699113</v>
+        <v>2462.673422309838</v>
       </c>
       <c r="W41" t="n">
-        <v>1633.020194556714</v>
+        <v>2462.673422309838</v>
       </c>
       <c r="X41" t="n">
-        <v>1250.990054078208</v>
+        <v>2080.643281831331</v>
       </c>
       <c r="Y41" t="n">
-        <v>857.4481986540455</v>
+        <v>1687.10142640717</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>892.0277972157131</v>
+        <v>892.0277972157133</v>
       </c>
       <c r="C42" t="n">
-        <v>730.324124456668</v>
+        <v>730.3241244566681</v>
       </c>
       <c r="D42" t="n">
         <v>591.4854874468801</v>
       </c>
       <c r="E42" t="n">
-        <v>444.4574775037513</v>
+        <v>444.4574775037514</v>
       </c>
       <c r="F42" t="n">
         <v>309.7636794536257</v>
       </c>
       <c r="G42" t="n">
-        <v>181.8455649277873</v>
+        <v>181.8455649277874</v>
       </c>
       <c r="H42" t="n">
-        <v>89.73432485532443</v>
+        <v>89.73432485532445</v>
       </c>
       <c r="I42" t="n">
-        <v>49.25346844619676</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="J42" t="n">
         <v>184.5476517718283</v>
@@ -7499,16 +7499,16 @@
         <v>740.2038440375013</v>
       </c>
       <c r="M42" t="n">
-        <v>1349.715516059186</v>
+        <v>1067.651044551364</v>
       </c>
       <c r="N42" t="n">
-        <v>1837.596175656847</v>
+        <v>1168.576526031233</v>
       </c>
       <c r="O42" t="n">
-        <v>2418.77049512788</v>
+        <v>1749.750845502266</v>
       </c>
       <c r="P42" t="n">
-        <v>2462.673422309838</v>
+        <v>2203.515355923823</v>
       </c>
       <c r="Q42" t="n">
         <v>2462.673422309838</v>
@@ -7517,7 +7517,7 @@
         <v>2453.204137802221</v>
       </c>
       <c r="S42" t="n">
-        <v>2315.457205132787</v>
+        <v>2315.457205132788</v>
       </c>
       <c r="T42" t="n">
         <v>2130.038523357352</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1983.362272126398</v>
+        <v>807.344105603055</v>
       </c>
       <c r="C43" t="n">
-        <v>1813.746302588078</v>
+        <v>637.7281360647353</v>
       </c>
       <c r="D43" t="n">
-        <v>1660.674409415841</v>
+        <v>523.3066342362847</v>
       </c>
       <c r="E43" t="n">
-        <v>1508.66539517716</v>
+        <v>523.3066342362847</v>
       </c>
       <c r="F43" t="n">
-        <v>1508.66539517716</v>
+        <v>370.8259792620619</v>
       </c>
       <c r="G43" t="n">
-        <v>1508.66539517716</v>
+        <v>202.5856305693156</v>
       </c>
       <c r="H43" t="n">
-        <v>1355.333233054041</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="I43" t="n">
-        <v>1355.333233054041</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="J43" t="n">
-        <v>1355.333233054041</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="K43" t="n">
-        <v>1466.300556018595</v>
+        <v>160.2207914107512</v>
       </c>
       <c r="L43" t="n">
-        <v>1665.905813305116</v>
+        <v>359.8260486972724</v>
       </c>
       <c r="M43" t="n">
-        <v>1888.279017444997</v>
+        <v>582.1992528371532</v>
       </c>
       <c r="N43" t="n">
-        <v>2108.599141288241</v>
+        <v>802.5193766803969</v>
       </c>
       <c r="O43" t="n">
-        <v>2301.181882181362</v>
+        <v>995.1021175735183</v>
       </c>
       <c r="P43" t="n">
-        <v>2444.685510742497</v>
+        <v>1138.605746134653</v>
       </c>
       <c r="Q43" t="n">
-        <v>2462.673422309838</v>
+        <v>1156.593657701994</v>
       </c>
       <c r="R43" t="n">
-        <v>2462.673422309838</v>
+        <v>1037.620168137197</v>
       </c>
       <c r="S43" t="n">
-        <v>2260.803747748406</v>
+        <v>1037.620168137197</v>
       </c>
       <c r="T43" t="n">
-        <v>2260.803747748406</v>
+        <v>807.344105603055</v>
       </c>
       <c r="U43" t="n">
-        <v>2260.803747748406</v>
+        <v>807.344105603055</v>
       </c>
       <c r="V43" t="n">
-        <v>2166.917640810777</v>
+        <v>807.344105603055</v>
       </c>
       <c r="W43" t="n">
-        <v>2166.917640810777</v>
+        <v>807.344105603055</v>
       </c>
       <c r="X43" t="n">
-        <v>2166.917640810777</v>
+        <v>807.344105603055</v>
       </c>
       <c r="Y43" t="n">
-        <v>2166.917640810777</v>
+        <v>807.344105603055</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>877.9940400608746</v>
+        <v>1218.162382575995</v>
       </c>
       <c r="C44" t="n">
-        <v>877.9940400608746</v>
+        <v>836.2286239088029</v>
       </c>
       <c r="D44" t="n">
-        <v>877.9940400608746</v>
+        <v>463.4046591360265</v>
       </c>
       <c r="E44" t="n">
-        <v>877.9940400608746</v>
+        <v>463.4046591360265</v>
       </c>
       <c r="F44" t="n">
-        <v>463.8428493710448</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="G44" t="n">
-        <v>49.25346844619676</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="H44" t="n">
-        <v>49.25346844619676</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="I44" t="n">
-        <v>49.25346844619676</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="J44" t="n">
-        <v>247.2441213907261</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="K44" t="n">
-        <v>676.2140042495211</v>
+        <v>478.2233513049918</v>
       </c>
       <c r="L44" t="n">
-        <v>720.8290998203504</v>
+        <v>522.8384468758211</v>
       </c>
       <c r="M44" t="n">
-        <v>796.2034079748277</v>
+        <v>1132.350118897506</v>
       </c>
       <c r="N44" t="n">
-        <v>1206.776668046504</v>
+        <v>1741.861790919191</v>
       </c>
       <c r="O44" t="n">
-        <v>1761.896899582923</v>
+        <v>2296.982022455609</v>
       </c>
       <c r="P44" t="n">
-        <v>2203.521714177737</v>
+        <v>2462.673422309838</v>
       </c>
       <c r="Q44" t="n">
-        <v>2458.2594842969</v>
+        <v>2462.673422309838</v>
       </c>
       <c r="R44" t="n">
         <v>2462.673422309838</v>
       </c>
       <c r="S44" t="n">
-        <v>2462.673422309838</v>
+        <v>2390.169514822001</v>
       </c>
       <c r="T44" t="n">
-        <v>2244.944662146619</v>
+        <v>2172.440754658782</v>
       </c>
       <c r="U44" t="n">
-        <v>2244.944662146619</v>
+        <v>1917.676586822453</v>
       </c>
       <c r="V44" t="n">
-        <v>2244.944662146619</v>
+        <v>1580.697312718394</v>
       </c>
       <c r="W44" t="n">
-        <v>1882.40973200422</v>
+        <v>1218.162382575995</v>
       </c>
       <c r="X44" t="n">
-        <v>1665.579435003056</v>
+        <v>1218.162382575995</v>
       </c>
       <c r="Y44" t="n">
-        <v>1272.037579578894</v>
+        <v>1218.162382575995</v>
       </c>
     </row>
     <row r="45">
@@ -7703,43 +7703,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>892.0277972157135</v>
+        <v>892.0277972157133</v>
       </c>
       <c r="C45" t="n">
-        <v>730.3241244566682</v>
+        <v>730.3241244566681</v>
       </c>
       <c r="D45" t="n">
-        <v>591.4854874468803</v>
+        <v>591.4854874468801</v>
       </c>
       <c r="E45" t="n">
-        <v>444.4574775037515</v>
+        <v>444.4574775037514</v>
       </c>
       <c r="F45" t="n">
-        <v>309.7636794536259</v>
+        <v>309.7636794536257</v>
       </c>
       <c r="G45" t="n">
-        <v>181.8455649277875</v>
+        <v>181.8455649277874</v>
       </c>
       <c r="H45" t="n">
-        <v>89.73432485532459</v>
+        <v>89.73432485532445</v>
       </c>
       <c r="I45" t="n">
-        <v>49.25346844619691</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="J45" t="n">
-        <v>184.5476517718284</v>
+        <v>184.5476517718283</v>
       </c>
       <c r="K45" t="n">
-        <v>442.456023145759</v>
+        <v>542.2935794116515</v>
       </c>
       <c r="L45" t="n">
-        <v>980.7330478067975</v>
+        <v>979.0476621741323</v>
       </c>
       <c r="M45" t="n">
-        <v>1067.651044551364</v>
+        <v>1065.965658918699</v>
       </c>
       <c r="N45" t="n">
-        <v>1168.576526031233</v>
+        <v>1675.477330940384</v>
       </c>
       <c r="O45" t="n">
         <v>1749.750845502266</v>
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.0487666267094</v>
+        <v>218.8694379845165</v>
       </c>
       <c r="C46" t="n">
-        <v>185.0487666267094</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="D46" t="n">
-        <v>185.0487666267094</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="E46" t="n">
-        <v>185.0487666267094</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="F46" t="n">
-        <v>185.0487666267094</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="G46" t="n">
-        <v>185.0487666267094</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="H46" t="n">
-        <v>185.0487666267094</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="I46" t="n">
-        <v>61.27713131618272</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="J46" t="n">
-        <v>49.25346844619676</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="K46" t="n">
         <v>160.2207914107512</v>
@@ -7833,25 +7833,25 @@
         <v>1037.620168137197</v>
       </c>
       <c r="S46" t="n">
-        <v>964.1897165052983</v>
+        <v>835.7504935757651</v>
       </c>
       <c r="T46" t="n">
-        <v>964.1897165052983</v>
+        <v>633.6772707735205</v>
       </c>
       <c r="U46" t="n">
-        <v>677.036535172911</v>
+        <v>633.6772707735205</v>
       </c>
       <c r="V46" t="n">
-        <v>416.3012307313336</v>
+        <v>633.6772707735205</v>
       </c>
       <c r="W46" t="n">
-        <v>416.3012307313336</v>
+        <v>633.6772707735205</v>
       </c>
       <c r="X46" t="n">
-        <v>185.0487666267094</v>
+        <v>402.4248066688963</v>
       </c>
       <c r="Y46" t="n">
-        <v>185.0487666267094</v>
+        <v>402.4248066688963</v>
       </c>
     </row>
   </sheetData>
@@ -7984,19 +7984,19 @@
         <v>178.8230039740467</v>
       </c>
       <c r="L2" t="n">
-        <v>191.5602121631146</v>
+        <v>203.5031588434685</v>
       </c>
       <c r="M2" t="n">
-        <v>199.099261177513</v>
+        <v>198.6167178772967</v>
       </c>
       <c r="N2" t="n">
-        <v>197.8585175523677</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O2" t="n">
-        <v>186.9547967801205</v>
+        <v>198.8977434604743</v>
       </c>
       <c r="P2" t="n">
-        <v>199.8197557315104</v>
+        <v>187.8768090511565</v>
       </c>
       <c r="Q2" t="n">
         <v>180.6233730229902</v>
@@ -8057,25 +8057,25 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J3" t="n">
-        <v>103.0555716666667</v>
+        <v>114.9985183470206</v>
       </c>
       <c r="K3" t="n">
         <v>123.9391158470206</v>
       </c>
       <c r="L3" t="n">
-        <v>112.5754335711478</v>
+        <v>124.5183802515017</v>
       </c>
       <c r="M3" t="n">
-        <v>115.4839025616399</v>
+        <v>126.9443059417775</v>
       </c>
       <c r="N3" t="n">
-        <v>118.6580877480622</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O3" t="n">
-        <v>127.802395291465</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P3" t="n">
-        <v>120.3146094042809</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q3" t="n">
         <v>113.7351914448925</v>
@@ -8142,19 +8142,19 @@
         <v>116.7662189439139</v>
       </c>
       <c r="L4" t="n">
-        <v>121.0542028586437</v>
+        <v>121.53674615886</v>
       </c>
       <c r="M4" t="n">
-        <v>124.820146137783</v>
+        <v>124.3376028375667</v>
       </c>
       <c r="N4" t="n">
-        <v>115.6874515583558</v>
+        <v>103.744504878002</v>
       </c>
       <c r="O4" t="n">
         <v>112.4959374921223</v>
       </c>
       <c r="P4" t="n">
-        <v>111.9040032899324</v>
+        <v>123.8469499702863</v>
       </c>
       <c r="Q4" t="n">
         <v>84.9458458910769</v>
@@ -8215,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>159.0427441082865</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K5" t="n">
-        <v>178.8230039740467</v>
+        <v>190.2834073541843</v>
       </c>
       <c r="L5" t="n">
-        <v>203.5031588434685</v>
+        <v>191.5602121631146</v>
       </c>
       <c r="M5" t="n">
         <v>187.1563144971591</v>
@@ -8230,13 +8230,13 @@
         <v>186.3981141722301</v>
       </c>
       <c r="O5" t="n">
-        <v>186.9547967801205</v>
+        <v>198.8977434604743</v>
       </c>
       <c r="P5" t="n">
         <v>199.8197557315104</v>
       </c>
       <c r="Q5" t="n">
-        <v>192.0837764031278</v>
+        <v>192.5663197033441</v>
       </c>
       <c r="R5" t="n">
         <v>85.43134583487716</v>
@@ -8297,10 +8297,10 @@
         <v>114.9985183470206</v>
       </c>
       <c r="K6" t="n">
-        <v>111.9961691666667</v>
+        <v>123.4565725468042</v>
       </c>
       <c r="L6" t="n">
-        <v>124.0358369512853</v>
+        <v>124.5183802515017</v>
       </c>
       <c r="M6" t="n">
         <v>115.4839025616399</v>
@@ -8309,7 +8309,7 @@
         <v>106.7151410677083</v>
       </c>
       <c r="O6" t="n">
-        <v>127.802395291465</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P6" t="n">
         <v>108.8542060241433</v>
@@ -8376,22 +8376,22 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K7" t="n">
-        <v>104.82327226356</v>
+        <v>116.7662189439139</v>
       </c>
       <c r="L7" t="n">
         <v>121.53674615886</v>
       </c>
       <c r="M7" t="n">
-        <v>124.820146137783</v>
+        <v>124.3376028375667</v>
       </c>
       <c r="N7" t="n">
-        <v>115.6874515583558</v>
+        <v>103.744504878002</v>
       </c>
       <c r="O7" t="n">
-        <v>112.4959374921223</v>
+        <v>124.4388841724762</v>
       </c>
       <c r="P7" t="n">
-        <v>123.36440667007</v>
+        <v>111.9040032899324</v>
       </c>
       <c r="Q7" t="n">
         <v>84.9458458910769</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>147.0997974279326</v>
+        <v>158.5602008080702</v>
       </c>
       <c r="K8" t="n">
         <v>178.8230039740467</v>
@@ -8464,13 +8464,13 @@
         <v>187.1563144971591</v>
       </c>
       <c r="N8" t="n">
-        <v>186.3981141722301</v>
+        <v>198.341060852584</v>
       </c>
       <c r="O8" t="n">
-        <v>198.8977434604743</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P8" t="n">
-        <v>199.3372124312941</v>
+        <v>187.8768090511565</v>
       </c>
       <c r="Q8" t="n">
         <v>192.5663197033441</v>
@@ -8531,25 +8531,25 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>103.0555716666667</v>
+        <v>114.9985183470206</v>
       </c>
       <c r="K9" t="n">
-        <v>123.4565725468042</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L9" t="n">
         <v>112.5754335711478</v>
       </c>
       <c r="M9" t="n">
-        <v>127.4268492419938</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N9" t="n">
         <v>106.7151410677083</v>
       </c>
       <c r="O9" t="n">
-        <v>127.802395291465</v>
+        <v>127.3198519912487</v>
       </c>
       <c r="P9" t="n">
-        <v>108.8542060241433</v>
+        <v>120.7971527044972</v>
       </c>
       <c r="Q9" t="n">
         <v>125.6781381252464</v>
@@ -8692,16 +8692,16 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L11" t="n">
-        <v>220.4411454839204</v>
+        <v>338.0247833484677</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>534.5141509616701</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>495.0402356415689</v>
@@ -8713,7 +8713,7 @@
         <v>276.0094878578761</v>
       </c>
       <c r="R11" t="n">
-        <v>85.43134583487716</v>
+        <v>80.97282258948574</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8771,22 +8771,22 @@
         <v>27.25755470451982</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L12" t="n">
-        <v>332.1372228188853</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>527.8723992698165</v>
       </c>
       <c r="N12" t="n">
-        <v>513.7234247897134</v>
+        <v>404.0364236644161</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P12" t="n">
-        <v>414.0015992319183</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>273.1004740566038</v>
@@ -8926,19 +8926,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>159.0765684456679</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L14" t="n">
         <v>542.9595789155856</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>52.37608334112755</v>
       </c>
       <c r="N14" t="n">
-        <v>534.5141509616701</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>495.0402356415689</v>
@@ -8947,10 +8947,10 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q14" t="n">
-        <v>18.69860894963057</v>
+        <v>18.69860894963054</v>
       </c>
       <c r="R14" t="n">
-        <v>80.97282258948576</v>
+        <v>80.97282258948574</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9014,13 +9014,13 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>242.9587916861582</v>
       </c>
       <c r="N15" t="n">
-        <v>513.7234247897134</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>241.2563819561933</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P15" t="n">
         <v>414.0015992319183</v>
@@ -9166,28 +9166,28 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L17" t="n">
         <v>542.9595789155856</v>
       </c>
       <c r="M17" t="n">
-        <v>353.130766099508</v>
+        <v>431.2404886439538</v>
       </c>
       <c r="N17" t="n">
         <v>534.5141509616701</v>
       </c>
       <c r="O17" t="n">
-        <v>495.0402356415689</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>18.69860894963057</v>
+        <v>18.69860894963054</v>
       </c>
       <c r="R17" t="n">
-        <v>85.43134583487716</v>
+        <v>80.97282258948574</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,28 +9242,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>27.25755470451982</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L18" t="n">
-        <v>482.0924488944969</v>
+        <v>381.2464324643024</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>513.7234247897134</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>295.8881897101911</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P18" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>11.32464942426567</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>19.83504119386832</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L20" t="n">
         <v>542.9595789155856</v>
       </c>
       <c r="M20" t="n">
-        <v>539.5326907749572</v>
+        <v>47.91756009573595</v>
       </c>
       <c r="N20" t="n">
-        <v>534.5141509616701</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>251.3179905877016</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q20" t="n">
-        <v>276.0094878578761</v>
+        <v>18.69860894963054</v>
       </c>
       <c r="R20" t="n">
         <v>85.43134583487716</v>
@@ -9479,22 +9479,22 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>163.9183459425315</v>
+        <v>63.07232951233746</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
-        <v>195.4764315808737</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
-        <v>527.8723992698165</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>513.7234247897134</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P21" t="n">
         <v>414.0015992319183</v>
@@ -9716,28 +9716,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>27.25755470451982</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M24" t="n">
-        <v>500.3427698043849</v>
+        <v>202.0315112148522</v>
       </c>
       <c r="N24" t="n">
         <v>623.1450866466196</v>
       </c>
       <c r="O24" t="n">
-        <v>512.0210150597484</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>414.0015992319183</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>11.32464942426567</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9953,28 +9953,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>27.25755470451982</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M27" t="n">
-        <v>500.3427698043849</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>623.1450866466196</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>512.0210150597484</v>
+        <v>411.174998629554</v>
       </c>
       <c r="P27" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
-        <v>11.32464942426567</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10190,28 +10190,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>27.25755470451982</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K30" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M30" t="n">
-        <v>156.5379616880327</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>623.1450866466196</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>512.0210150597484</v>
+        <v>411.174998629554</v>
       </c>
       <c r="P30" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
-        <v>11.32464942426567</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10430,19 +10430,19 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L33" t="n">
-        <v>119.6346577056545</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M33" t="n">
-        <v>605.4165828749999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>512.0210150597484</v>
+        <v>411.174998629554</v>
       </c>
       <c r="P33" t="n">
         <v>414.0015992319183</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>19.83504119386832</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K35" t="n">
         <v>421.3890363425141</v>
       </c>
       <c r="L35" t="n">
-        <v>421.8395115395529</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>285.6469168290598</v>
       </c>
       <c r="N35" t="n">
-        <v>534.5141509616699</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>495.0402356415689</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q35" t="n">
         <v>276.0094878578761</v>
       </c>
       <c r="R35" t="n">
-        <v>80.97282258948576</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,19 +10667,19 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L36" t="n">
-        <v>211.3278157909413</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>513.7234247897131</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>512.0210150597484</v>
+        <v>411.1749986295545</v>
       </c>
       <c r="P36" t="n">
         <v>414.0015992319183</v>
@@ -10822,25 +10822,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>19.83504119386832</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K38" t="n">
         <v>421.3890363425141</v>
       </c>
       <c r="L38" t="n">
-        <v>542.9595789155856</v>
+        <v>333.5662601030762</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>534.51415096167</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>369.4616450201444</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q38" t="n">
         <v>276.0094878578761</v>
@@ -10907,13 +10907,13 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>381.2464324643029</v>
       </c>
       <c r="M39" t="n">
-        <v>527.8723992698165</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>115.1498578268242</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
@@ -10922,7 +10922,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
-        <v>11.32464942426567</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>219.8255997236959</v>
+        <v>19.83504119386832</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>542.9595789155856</v>
+        <v>424.8902272591396</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>534.51415096167</v>
+        <v>534.5141509616701</v>
       </c>
       <c r="O41" t="n">
         <v>495.0402356415689</v>
       </c>
       <c r="P41" t="n">
-        <v>95.819887191262</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q41" t="n">
         <v>276.0094878578761</v>
       </c>
       <c r="R41" t="n">
-        <v>85.43134583487716</v>
+        <v>80.97282258948576</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11147,19 +11147,19 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M42" t="n">
-        <v>527.8723992698165</v>
+        <v>242.9587916861578</v>
       </c>
       <c r="N42" t="n">
-        <v>390.8638162805979</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
-        <v>11.32464942426567</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>219.8255997236959</v>
+        <v>19.83504119386832</v>
       </c>
       <c r="K44" t="n">
         <v>421.3890363425141</v>
@@ -11305,22 +11305,22 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>539.5326907749572</v>
       </c>
       <c r="N44" t="n">
-        <v>333.5662601030758</v>
+        <v>534.5141509616701</v>
       </c>
       <c r="O44" t="n">
         <v>495.0402356415689</v>
       </c>
       <c r="P44" t="n">
-        <v>418.3383206229274</v>
+        <v>139.617699672841</v>
       </c>
       <c r="Q44" t="n">
-        <v>276.0094878578761</v>
+        <v>18.69860894963057</v>
       </c>
       <c r="R44" t="n">
-        <v>85.43134583487716</v>
+        <v>80.97282258948576</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,19 +11378,19 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K45" t="n">
-        <v>242.9587916861576</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L45" t="n">
-        <v>482.0924488944969</v>
+        <v>379.5440227343375</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>513.7234247897134</v>
       </c>
       <c r="O45" t="n">
-        <v>512.0210150597484</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>414.0015992319183</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C11" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E11" t="n">
-        <v>32.99155437743377</v>
+        <v>353.281750853101</v>
       </c>
       <c r="F11" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>314.136721391124</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>151.1877507841112</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>215.551472561587</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>252.2165261579655</v>
@@ -23323,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="12">
@@ -23436,10 +23436,10 @@
         <v>151.7988405018876</v>
       </c>
       <c r="I13" t="n">
-        <v>14.93131860950595</v>
+        <v>70.76596784495996</v>
       </c>
       <c r="J13" t="n">
-        <v>11.9034262412861</v>
+        <v>11.90342624128609</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>117.7837546691494</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>227.9733019088003</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>284.2816495190633</v>
@@ -23478,10 +23478,10 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X13" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>390.8378626949542</v>
+        <v>159.809687624705</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.4434871155996</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>314.136721391124</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23551,16 +23551,16 @@
         <v>215.551472561587</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>252.2165261579655</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W14" t="n">
-        <v>355.3483608163892</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y14" t="n">
         <v>389.6064368699203</v>
@@ -23655,16 +23655,16 @@
         <v>181.719814997536</v>
       </c>
       <c r="C16" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G16" t="n">
         <v>166.5579452058188</v>
@@ -23676,7 +23676,7 @@
         <v>122.5339189574214</v>
       </c>
       <c r="J16" t="n">
-        <v>11.9034262412861</v>
+        <v>11.90342624128609</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>36.03430662514376</v>
+        <v>117.7837546691494</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>199.8509778158173</v>
       </c>
       <c r="T16" t="n">
-        <v>227.9733019088003</v>
+        <v>125.3307627724974</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y16" t="n">
         <v>219.8148072196457</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>378.1144210805207</v>
@@ -23740,19 +23740,19 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F17" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.4434871155996</v>
       </c>
       <c r="H17" t="n">
-        <v>307.5784094621331</v>
+        <v>314.136721391124</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>113.2811119331022</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>151.1877507841112</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>215.551472561587</v>
       </c>
       <c r="U17" t="n">
-        <v>252.2165261579655</v>
+        <v>123.3788928863657</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>109.003820644871</v>
+        <v>101.7842613043585</v>
       </c>
       <c r="C19" t="n">
         <v>167.9198098429365</v>
@@ -23913,7 +23913,7 @@
         <v>122.5339189574214</v>
       </c>
       <c r="J19" t="n">
-        <v>11.9034262412861</v>
+        <v>11.90342624128609</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>117.7837546691494</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>199.8509778158173</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>227.9733019088003</v>
       </c>
       <c r="U19" t="n">
-        <v>284.2816495190633</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W19" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23971,7 +23971,7 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D20" t="n">
         <v>369.0957251250487</v>
@@ -23980,16 +23980,16 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F20" t="n">
-        <v>193.7279460772322</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G20" t="n">
-        <v>410.4434871155996</v>
+        <v>100.4488204418932</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>314.136721391124</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>113.2811119331022</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24028,13 +24028,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C22" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D22" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>150.9558484244806</v>
+        <v>139.0054884643619</v>
       </c>
       <c r="G22" t="n">
         <v>166.5579452058188</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>117.7837546691494</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>199.8509778158173</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>284.2816495190633</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>130.0323791300895</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y22" t="n">
         <v>219.8148072196457</v>
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24256,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>151.1877507841112</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>215.551472561587</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>252.2165261579655</v>
       </c>
       <c r="V23" t="n">
-        <v>261.2201664866647</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>64.9791957742255</v>
       </c>
       <c r="X23" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24366,13 +24366,13 @@
         <v>181.719814997536</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D25" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E25" t="n">
-        <v>150.4889240962943</v>
+        <v>142.2397720430471</v>
       </c>
       <c r="F25" t="n">
         <v>150.9558484244806</v>
@@ -24387,7 +24387,7 @@
         <v>122.5339189574214</v>
       </c>
       <c r="J25" t="n">
-        <v>11.9034262412861</v>
+        <v>11.90342624128609</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24423,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X25" t="n">
-        <v>130.4826458561056</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y25" t="n">
         <v>219.8148072196457</v>
@@ -24445,7 +24445,7 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C26" t="n">
-        <v>249.2314834443463</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24454,7 +24454,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>362.5125953774481</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>113.2811119331022</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24603,10 +24603,10 @@
         <v>181.719814997536</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E28" t="n">
         <v>150.4889240962943</v>
@@ -24624,7 +24624,7 @@
         <v>122.5339189574214</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>11.90342624128609</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24654,22 +24654,22 @@
         <v>199.8509778158173</v>
       </c>
       <c r="T28" t="n">
-        <v>169.953622950684</v>
+        <v>227.9733019088003</v>
       </c>
       <c r="U28" t="n">
-        <v>284.2816495190633</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>178.1923977039844</v>
       </c>
     </row>
     <row r="29">
@@ -24679,19 +24679,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>160.1699910514342</v>
       </c>
       <c r="C29" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>342.7014387105569</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>113.2811119331022</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,10 +24733,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>215.551472561587</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>252.2165261579655</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="30">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.9198098429365</v>
@@ -24846,10 +24846,10 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F31" t="n">
-        <v>93.34464265171033</v>
+        <v>31.95866495441588</v>
       </c>
       <c r="G31" t="n">
         <v>166.5579452058188</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>117.7837546691494</v>
       </c>
       <c r="S31" t="n">
         <v>199.8509778158173</v>
@@ -24897,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W31" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>228.939939463578</v>
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>313.8012683798626</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24928,7 +24928,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>84.45195574611927</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>151.1877507841112</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>215.551472561587</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>252.2165261579655</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25080,22 +25080,22 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D34" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F34" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.5579452058188</v>
       </c>
       <c r="H34" t="n">
-        <v>151.7988405018876</v>
+        <v>81.94859479406443</v>
       </c>
       <c r="I34" t="n">
-        <v>122.5339189574214</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>11.9034262412861</v>
@@ -25122,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>117.7837546691494</v>
       </c>
       <c r="S34" t="n">
-        <v>190.4790543257475</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>227.9733019088003</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>284.2816495190633</v>
       </c>
       <c r="V34" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X34" t="n">
         <v>228.939939463578</v>
@@ -25156,16 +25156,16 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F35" t="n">
-        <v>410.0096787829314</v>
+        <v>48.50099718073466</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>314.136721391124</v>
       </c>
       <c r="I35" t="n">
-        <v>113.2811119331022</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25210,19 +25210,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>131.6423437237577</v>
+        <v>252.2165261579655</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W35" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="36">
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D37" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E37" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>150.9558484244806</v>
@@ -25332,7 +25332,7 @@
         <v>151.7988405018876</v>
       </c>
       <c r="I37" t="n">
-        <v>122.5339189574214</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>11.9034262412861</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>113.4171708784249</v>
+        <v>117.7837546691494</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,13 +25368,13 @@
         <v>227.9733019088003</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>202.3114718902936</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>228.939939463578</v>
@@ -25393,13 +25393,13 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C38" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F38" t="n">
         <v>410.0096787829314</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>151.1877507841112</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>252.2165261579655</v>
       </c>
       <c r="V38" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X38" t="n">
-        <v>378.2098390737216</v>
+        <v>30.38610513048627</v>
       </c>
       <c r="Y38" t="n">
-        <v>93.60408409123215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C40" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>150.9558484244806</v>
@@ -25569,7 +25569,7 @@
         <v>151.7988405018876</v>
       </c>
       <c r="I40" t="n">
-        <v>122.5339189574214</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>11.9034262412861</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>117.7837546691494</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>199.8509778158173</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>284.2816495190633</v>
+        <v>174.5655494462433</v>
       </c>
       <c r="V40" t="n">
-        <v>74.66392562767899</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X40" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="41">
@@ -25633,16 +25633,16 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D41" t="n">
-        <v>369.0957251250487</v>
+        <v>349.0203794600097</v>
       </c>
       <c r="E41" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.4434871155996</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>314.136721391124</v>
@@ -25681,16 +25681,16 @@
         <v>151.1877507841112</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>215.551472561587</v>
       </c>
       <c r="U41" t="n">
         <v>252.2165261579655</v>
       </c>
       <c r="V41" t="n">
-        <v>86.71383928998762</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>38.26388743034883</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.5579452058188</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>117.7837546691494</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>199.8509778158173</v>
       </c>
       <c r="T43" t="n">
-        <v>227.9733019088003</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>284.2816495190633</v>
       </c>
       <c r="V43" t="n">
-        <v>165.180705528909</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W43" t="n">
         <v>283.2948374677749</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C44" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>390.8378626949542</v>
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.4434871155996</v>
       </c>
       <c r="H44" t="n">
         <v>314.136721391124</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>151.1877507841112</v>
+        <v>79.4088823711523</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>252.2165261579655</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>163.5478450425691</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="45">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>151.5411742405149</v>
@@ -26043,10 +26043,10 @@
         <v>151.7988405018876</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>122.5339189574214</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>11.9034262412861</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26073,16 +26073,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>127.1548307002379</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>227.9733019088003</v>
+        <v>27.92081133457822</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>284.2816495190633</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W46" t="n">
         <v>283.2948374677749</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>606983.605694341</v>
+        <v>606983.6056943409</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>606983.6056943409</v>
+        <v>606983.605694341</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>743086.6852908169</v>
+        <v>743086.6852908171</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>743086.6852908173</v>
+        <v>743086.6852908172</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>606983.6056943408</v>
+        <v>606983.605694341</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>606983.6056943409</v>
+        <v>606983.605694341</v>
       </c>
     </row>
     <row r="16">
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>575718.0453706363</v>
+      </c>
+      <c r="C2" t="n">
+        <v>575718.0453706365</v>
+      </c>
+      <c r="D2" t="n">
         <v>575718.0453706364</v>
       </c>
-      <c r="C2" t="n">
-        <v>575718.0453706363</v>
-      </c>
-      <c r="D2" t="n">
-        <v>575718.0453706363</v>
-      </c>
       <c r="E2" t="n">
-        <v>392870.2444470567</v>
+        <v>392870.2444470564</v>
       </c>
       <c r="F2" t="n">
+        <v>392870.2444470564</v>
+      </c>
+      <c r="G2" t="n">
         <v>392870.2444470566</v>
-      </c>
-      <c r="G2" t="n">
-        <v>392870.2444470567</v>
       </c>
       <c r="H2" t="n">
         <v>392870.2444470566</v>
       </c>
       <c r="I2" t="n">
-        <v>472581.7982948614</v>
+        <v>472581.7982948612</v>
       </c>
       <c r="J2" t="n">
         <v>472581.7982948615</v>
@@ -26343,19 +26343,19 @@
         <v>472581.7982948614</v>
       </c>
       <c r="L2" t="n">
-        <v>472581.7982948614</v>
+        <v>472581.7982948613</v>
       </c>
       <c r="M2" t="n">
         <v>392870.2444470565</v>
       </c>
       <c r="N2" t="n">
+        <v>392870.2444470566</v>
+      </c>
+      <c r="O2" t="n">
         <v>392870.2444470567</v>
       </c>
-      <c r="O2" t="n">
-        <v>392870.2444470565</v>
-      </c>
       <c r="P2" t="n">
-        <v>392870.2444470566</v>
+        <v>392870.2444470567</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4002.356120360259</v>
+        <v>4002.356120360235</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>479920.8654223746</v>
+        <v>479920.8654223747</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>91490.98802074899</v>
       </c>
       <c r="J3" t="n">
-        <v>3124.800341234512</v>
+        <v>3124.800341234542</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>64711.33719262281</v>
+        <v>64711.33719262287</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>382502.5179362813</v>
       </c>
       <c r="E4" t="n">
-        <v>83642.99703601305</v>
+        <v>83642.99703601302</v>
       </c>
       <c r="F4" t="n">
-        <v>83642.99703601305</v>
+        <v>83642.99703601304</v>
       </c>
       <c r="G4" t="n">
-        <v>83642.99703601305</v>
+        <v>83642.99703601304</v>
       </c>
       <c r="H4" t="n">
-        <v>83642.99703601305</v>
+        <v>83642.99703601302</v>
       </c>
       <c r="I4" t="n">
         <v>113626.6648779584</v>
       </c>
       <c r="J4" t="n">
+        <v>113626.6648779585</v>
+      </c>
+      <c r="K4" t="n">
         <v>113626.6648779584</v>
-      </c>
-      <c r="K4" t="n">
-        <v>113626.6648779585</v>
       </c>
       <c r="L4" t="n">
         <v>113626.6648779584</v>
       </c>
       <c r="M4" t="n">
-        <v>83642.99703601304</v>
+        <v>83642.99703601305</v>
       </c>
       <c r="N4" t="n">
         <v>83642.99703601304</v>
       </c>
       <c r="O4" t="n">
-        <v>83642.99703601302</v>
+        <v>83642.99703601305</v>
       </c>
       <c r="P4" t="n">
-        <v>83642.99703601302</v>
+        <v>83642.99703601305</v>
       </c>
     </row>
     <row r="5">
@@ -26524,46 +26524,46 @@
         <v>154859.4401558293</v>
       </c>
       <c r="C6" t="n">
-        <v>158861.7962761894</v>
+        <v>158861.7962761897</v>
       </c>
       <c r="D6" t="n">
-        <v>158861.7962761895</v>
+        <v>158861.7962761896</v>
       </c>
       <c r="E6" t="n">
-        <v>-216257.4483852118</v>
+        <v>-222352.3750826648</v>
       </c>
       <c r="F6" t="n">
-        <v>263663.4170371627</v>
+        <v>257568.4903397099</v>
       </c>
       <c r="G6" t="n">
-        <v>263663.4170371628</v>
+        <v>257568.49033971</v>
       </c>
       <c r="H6" t="n">
-        <v>263663.4170371627</v>
+        <v>257568.4903397101</v>
       </c>
       <c r="I6" t="n">
-        <v>200981.8765700202</v>
+        <v>197544.0016674942</v>
       </c>
       <c r="J6" t="n">
-        <v>289348.0642495348</v>
+        <v>285910.1893470088</v>
       </c>
       <c r="K6" t="n">
-        <v>292472.8645907692</v>
+        <v>289034.9896882434</v>
       </c>
       <c r="L6" t="n">
-        <v>292472.8645907692</v>
+        <v>289034.9896882433</v>
       </c>
       <c r="M6" t="n">
-        <v>198952.0798445398</v>
+        <v>192857.153147087</v>
       </c>
       <c r="N6" t="n">
-        <v>263663.4170371628</v>
+        <v>257568.49033971</v>
       </c>
       <c r="O6" t="n">
-        <v>263663.4170371626</v>
+        <v>257568.4903397101</v>
       </c>
       <c r="P6" t="n">
-        <v>263663.4170371627</v>
+        <v>257568.4903397101</v>
       </c>
     </row>
   </sheetData>
@@ -26746,22 +26746,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>372.9905667326292</v>
+        <v>372.9905667326293</v>
       </c>
       <c r="F3" t="n">
-        <v>372.9905667326292</v>
+        <v>372.9905667326293</v>
       </c>
       <c r="G3" t="n">
-        <v>372.9905667326292</v>
+        <v>372.9905667326293</v>
       </c>
       <c r="H3" t="n">
-        <v>372.9905667326292</v>
+        <v>372.9905667326293</v>
       </c>
       <c r="I3" t="n">
-        <v>372.9905667326292</v>
+        <v>372.9905667326293</v>
       </c>
       <c r="J3" t="n">
-        <v>372.9905667326292</v>
+        <v>372.9905667326293</v>
       </c>
       <c r="K3" t="n">
         <v>372.9905667326292</v>
@@ -26813,7 +26813,7 @@
         <v>959.7216195947767</v>
       </c>
       <c r="J4" t="n">
-        <v>959.7216195947767</v>
+        <v>959.7216195947768</v>
       </c>
       <c r="K4" t="n">
         <v>959.7216195947767</v>
@@ -26822,16 +26822,16 @@
         <v>959.7216195947767</v>
       </c>
       <c r="M4" t="n">
-        <v>615.6683555774595</v>
+        <v>615.6683555774596</v>
       </c>
       <c r="N4" t="n">
-        <v>615.6683555774595</v>
+        <v>615.6683555774596</v>
       </c>
       <c r="O4" t="n">
-        <v>615.6683555774595</v>
+        <v>615.6683555774596</v>
       </c>
       <c r="P4" t="n">
-        <v>615.6683555774595</v>
+        <v>615.6683555774596</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>372.9905667326292</v>
+        <v>372.9905667326293</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>344.0532640173171</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94294668035388</v>
+        <v>11.942946680354</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>259.6721448797885</v>
+        <v>259.6721448797887</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
-        <v>378.1144210805207</v>
+        <v>377.6047524273964</v>
       </c>
       <c r="D2" t="n">
-        <v>369.0957251250487</v>
+        <v>357.1527784446948</v>
       </c>
       <c r="E2" t="n">
-        <v>390.8378626949542</v>
+        <v>378.8949160146003</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27429,7 +27429,7 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
-        <v>173.4137389355957</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
         <v>222.1153568062989</v>
@@ -27438,7 +27438,7 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
-        <v>321.6665346826642</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
         <v>358.909580840975</v>
@@ -27447,7 +27447,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
-        <v>389.096768216796</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="3">
@@ -27469,7 +27469,7 @@
         <v>133.6147831633436</v>
       </c>
       <c r="F3" t="n">
-        <v>122.8275126335687</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
         <v>127.4412149769483</v>
@@ -27478,7 +27478,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
-        <v>55.75551577648572</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,10 +27505,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.18642621600367</v>
+        <v>47.24347953564978</v>
       </c>
       <c r="S3" t="n">
-        <v>151.2714921173871</v>
+        <v>140.7521446813314</v>
       </c>
       <c r="T3" t="n">
         <v>186.7982527956746</v>
@@ -27545,7 +27545,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E4" t="n">
-        <v>150.4889240962943</v>
+        <v>139.9695766602387</v>
       </c>
       <c r="F4" t="n">
         <v>139.0129017441268</v>
@@ -27554,10 +27554,10 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H4" t="n">
-        <v>157.7789187685189</v>
+        <v>145.835972088165</v>
       </c>
       <c r="I4" t="n">
-        <v>142.7610139533483</v>
+        <v>130.8180672729944</v>
       </c>
       <c r="J4" t="n">
         <v>59.456666199969</v>
@@ -27590,13 +27590,13 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
-        <v>218.9042169721241</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U4" t="n">
         <v>284.3183371157911</v>
       </c>
       <c r="V4" t="n">
-        <v>247.6086039611059</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W4" t="n">
         <v>283.2948374677749</v>
@@ -27605,7 +27605,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y4" t="n">
-        <v>207.8718605392918</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>390.1031041228389</v>
+        <v>379.5837566867833</v>
       </c>
       <c r="C5" t="n">
         <v>378.1144210805207</v>
@@ -27624,10 +27624,10 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
-        <v>390.3281940418299</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>398.0667321025775</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27669,7 +27669,7 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
-        <v>222.1153568062989</v>
+        <v>210.172410125945</v>
       </c>
       <c r="U5" t="n">
         <v>252.3364829231459</v>
@@ -27678,10 +27678,10 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
-        <v>346.9666341606211</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
-        <v>366.2668923933677</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
         <v>389.6064368699203</v>
@@ -27709,7 +27709,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
-        <v>127.4412149769483</v>
+        <v>115.4982682965944</v>
       </c>
       <c r="H6" t="n">
         <v>98.93847887876893</v>
@@ -27745,25 +27745,25 @@
         <v>47.24347953564978</v>
       </c>
       <c r="S6" t="n">
-        <v>151.2714921173871</v>
+        <v>140.7521446813314</v>
       </c>
       <c r="T6" t="n">
-        <v>174.8553061153208</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
         <v>216.3098444776729</v>
       </c>
       <c r="V6" t="n">
-        <v>226.1116663261494</v>
+        <v>214.1687196457955</v>
       </c>
       <c r="W6" t="n">
-        <v>226.9597633986692</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X6" t="n">
         <v>195.9378182409833</v>
       </c>
       <c r="Y6" t="n">
-        <v>180.0767656508612</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="7">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>169.7768683171821</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C7" t="n">
-        <v>155.9768631625826</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D7" t="n">
         <v>151.5411742405149</v>
@@ -27794,10 +27794,10 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I7" t="n">
-        <v>142.7610139533483</v>
+        <v>130.8180672729944</v>
       </c>
       <c r="J7" t="n">
-        <v>48.9373187639133</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>38.15196793284785</v>
+        <v>27.63262049679216</v>
       </c>
       <c r="R7" t="n">
-        <v>148.0265635717656</v>
+        <v>136.0836168914117</v>
       </c>
       <c r="S7" t="n">
-        <v>211.5726649703493</v>
+        <v>199.6297182899954</v>
       </c>
       <c r="T7" t="n">
         <v>230.8471636524779</v>
@@ -27839,7 +27839,7 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X7" t="n">
-        <v>216.9969927832241</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y7" t="n">
         <v>219.8148072196457</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>389.5934354697146</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
         <v>378.1144210805207</v>
@@ -27861,10 +27861,10 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
-        <v>390.8378626949542</v>
+        <v>378.8949160146003</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>399.4903313468757</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27903,7 +27903,7 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>185.3566856159496</v>
+        <v>173.4137389355957</v>
       </c>
       <c r="T8" t="n">
         <v>222.1153568062989</v>
@@ -27912,10 +27912,10 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
-        <v>321.6665346826642</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>346.9666341606211</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
         <v>378.2098390737216</v>
@@ -27952,7 +27952,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>67.69846245683961</v>
+        <v>55.75551577648572</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,28 +27979,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>47.24347953564978</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
-        <v>176.2789053596189</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
         <v>216.3098444776729</v>
       </c>
       <c r="V9" t="n">
-        <v>226.1116663261494</v>
+        <v>215.5923188900937</v>
       </c>
       <c r="W9" t="n">
-        <v>238.9027100790231</v>
+        <v>226.9597633986692</v>
       </c>
       <c r="X9" t="n">
         <v>183.9948715606295</v>
       </c>
       <c r="Y9" t="n">
-        <v>178.6531664065631</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="10">
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>181.719814997536</v>
+        <v>169.7768683171821</v>
       </c>
       <c r="C10" t="n">
         <v>155.9768631625826</v>
       </c>
       <c r="D10" t="n">
-        <v>139.598227560161</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
-        <v>139.9695766602386</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
         <v>150.9558484244806</v>
@@ -28034,7 +28034,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
-        <v>59.456666199969</v>
+        <v>47.51371951961512</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28073,13 +28073,13 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
-        <v>283.2948374677749</v>
+        <v>272.7754900317192</v>
       </c>
       <c r="X10" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y10" t="n">
-        <v>207.8718605392918</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="11">
@@ -31758,40 +31758,40 @@
         <v>15.35634026753985</v>
       </c>
       <c r="I11" t="n">
-        <v>57.80791487018972</v>
+        <v>57.80791487018973</v>
       </c>
       <c r="J11" t="n">
         <v>127.2647562340643</v>
       </c>
       <c r="K11" t="n">
-        <v>190.7368796101133</v>
+        <v>190.7368796101134</v>
       </c>
       <c r="L11" t="n">
         <v>236.6259652649624</v>
       </c>
       <c r="M11" t="n">
-        <v>263.2919792996614</v>
+        <v>263.2919792996615</v>
       </c>
       <c r="N11" t="n">
         <v>267.5523187880196</v>
       </c>
       <c r="O11" t="n">
-        <v>252.6420677409941</v>
+        <v>252.6420677409942</v>
       </c>
       <c r="P11" t="n">
-        <v>215.6241597361226</v>
+        <v>215.6241597361227</v>
       </c>
       <c r="Q11" t="n">
         <v>161.9247640733597</v>
       </c>
       <c r="R11" t="n">
-        <v>94.19042688449659</v>
+        <v>94.1904268844966</v>
       </c>
       <c r="S11" t="n">
         <v>34.16893483183836</v>
       </c>
       <c r="T11" t="n">
-        <v>6.563884244711896</v>
+        <v>6.563884244711897</v>
       </c>
       <c r="U11" t="n">
         <v>0.119956765180343</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8022815963682969</v>
+        <v>0.802281596368297</v>
       </c>
       <c r="H12" t="n">
-        <v>7.748351207030658</v>
+        <v>7.748351207030659</v>
       </c>
       <c r="I12" t="n">
         <v>27.62241461180321</v>
@@ -31858,13 +31858,13 @@
         <v>190.8832006938202</v>
       </c>
       <c r="P12" t="n">
-        <v>153.2005971170303</v>
+        <v>153.2005971170304</v>
       </c>
       <c r="Q12" t="n">
         <v>102.4105420206268</v>
       </c>
       <c r="R12" t="n">
-        <v>49.81183455346322</v>
+        <v>49.81183455346324</v>
       </c>
       <c r="S12" t="n">
         <v>14.90202877464796</v>
@@ -31873,7 +31873,7 @@
         <v>3.233757837993266</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0527816839715985</v>
+        <v>0.05278168397159851</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,22 +31910,22 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6726059400096592</v>
+        <v>0.6726059400096593</v>
       </c>
       <c r="H13" t="n">
-        <v>5.980078266631338</v>
+        <v>5.980078266631339</v>
       </c>
       <c r="I13" t="n">
         <v>20.22709499592685</v>
       </c>
       <c r="J13" t="n">
-        <v>47.5532399586829</v>
+        <v>47.55323995868291</v>
       </c>
       <c r="K13" t="n">
-        <v>78.14458103021312</v>
+        <v>78.14458103021313</v>
       </c>
       <c r="L13" t="n">
-        <v>99.99815948107245</v>
+        <v>99.99815948107246</v>
       </c>
       <c r="M13" t="n">
         <v>105.4340383962414</v>
@@ -31934,13 +31934,13 @@
         <v>102.9270526198418</v>
       </c>
       <c r="O13" t="n">
-        <v>95.06979232063804</v>
+        <v>95.06979232063807</v>
       </c>
       <c r="P13" t="n">
-        <v>81.34863114444093</v>
+        <v>81.34863114444094</v>
       </c>
       <c r="Q13" t="n">
-        <v>56.32157557662701</v>
+        <v>56.32157557662703</v>
       </c>
       <c r="R13" t="n">
         <v>30.24280890261613</v>
@@ -31995,40 +31995,40 @@
         <v>15.35634026753985</v>
       </c>
       <c r="I14" t="n">
-        <v>57.80791487018972</v>
+        <v>57.80791487018973</v>
       </c>
       <c r="J14" t="n">
         <v>127.2647562340643</v>
       </c>
       <c r="K14" t="n">
-        <v>190.7368796101133</v>
+        <v>190.7368796101134</v>
       </c>
       <c r="L14" t="n">
         <v>236.6259652649624</v>
       </c>
       <c r="M14" t="n">
-        <v>263.2919792996614</v>
+        <v>263.2919792996615</v>
       </c>
       <c r="N14" t="n">
         <v>267.5523187880196</v>
       </c>
       <c r="O14" t="n">
-        <v>252.6420677409941</v>
+        <v>252.6420677409942</v>
       </c>
       <c r="P14" t="n">
-        <v>215.6241597361226</v>
+        <v>215.6241597361227</v>
       </c>
       <c r="Q14" t="n">
         <v>161.9247640733597</v>
       </c>
       <c r="R14" t="n">
-        <v>94.19042688449659</v>
+        <v>94.1904268844966</v>
       </c>
       <c r="S14" t="n">
         <v>34.16893483183836</v>
       </c>
       <c r="T14" t="n">
-        <v>6.563884244711896</v>
+        <v>6.563884244711897</v>
       </c>
       <c r="U14" t="n">
         <v>0.119956765180343</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8022815963682969</v>
+        <v>0.802281596368297</v>
       </c>
       <c r="H15" t="n">
-        <v>7.748351207030658</v>
+        <v>7.748351207030659</v>
       </c>
       <c r="I15" t="n">
         <v>27.62241461180321</v>
@@ -32095,13 +32095,13 @@
         <v>190.8832006938202</v>
       </c>
       <c r="P15" t="n">
-        <v>153.2005971170303</v>
+        <v>153.2005971170304</v>
       </c>
       <c r="Q15" t="n">
         <v>102.4105420206268</v>
       </c>
       <c r="R15" t="n">
-        <v>49.81183455346322</v>
+        <v>49.81183455346324</v>
       </c>
       <c r="S15" t="n">
         <v>14.90202877464796</v>
@@ -32110,7 +32110,7 @@
         <v>3.233757837993266</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0527816839715985</v>
+        <v>0.05278168397159851</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,22 +32147,22 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6726059400096592</v>
+        <v>0.6726059400096593</v>
       </c>
       <c r="H16" t="n">
-        <v>5.980078266631338</v>
+        <v>5.980078266631339</v>
       </c>
       <c r="I16" t="n">
         <v>20.22709499592685</v>
       </c>
       <c r="J16" t="n">
-        <v>47.5532399586829</v>
+        <v>47.55323995868291</v>
       </c>
       <c r="K16" t="n">
-        <v>78.14458103021312</v>
+        <v>78.14458103021313</v>
       </c>
       <c r="L16" t="n">
-        <v>99.99815948107245</v>
+        <v>99.99815948107246</v>
       </c>
       <c r="M16" t="n">
         <v>105.4340383962414</v>
@@ -32171,13 +32171,13 @@
         <v>102.9270526198418</v>
       </c>
       <c r="O16" t="n">
-        <v>95.06979232063804</v>
+        <v>95.06979232063807</v>
       </c>
       <c r="P16" t="n">
-        <v>81.34863114444093</v>
+        <v>81.34863114444094</v>
       </c>
       <c r="Q16" t="n">
-        <v>56.32157557662701</v>
+        <v>56.32157557662703</v>
       </c>
       <c r="R16" t="n">
         <v>30.24280890261613</v>
@@ -32232,40 +32232,40 @@
         <v>15.35634026753985</v>
       </c>
       <c r="I17" t="n">
-        <v>57.80791487018972</v>
+        <v>57.80791487018973</v>
       </c>
       <c r="J17" t="n">
         <v>127.2647562340643</v>
       </c>
       <c r="K17" t="n">
-        <v>190.7368796101133</v>
+        <v>190.7368796101134</v>
       </c>
       <c r="L17" t="n">
         <v>236.6259652649624</v>
       </c>
       <c r="M17" t="n">
-        <v>263.2919792996614</v>
+        <v>263.2919792996615</v>
       </c>
       <c r="N17" t="n">
         <v>267.5523187880196</v>
       </c>
       <c r="O17" t="n">
-        <v>252.6420677409941</v>
+        <v>252.6420677409942</v>
       </c>
       <c r="P17" t="n">
-        <v>215.6241597361226</v>
+        <v>215.6241597361227</v>
       </c>
       <c r="Q17" t="n">
         <v>161.9247640733597</v>
       </c>
       <c r="R17" t="n">
-        <v>94.19042688449659</v>
+        <v>94.1904268844966</v>
       </c>
       <c r="S17" t="n">
         <v>34.16893483183836</v>
       </c>
       <c r="T17" t="n">
-        <v>6.563884244711896</v>
+        <v>6.563884244711897</v>
       </c>
       <c r="U17" t="n">
         <v>0.119956765180343</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8022815963682969</v>
+        <v>0.802281596368297</v>
       </c>
       <c r="H18" t="n">
-        <v>7.748351207030658</v>
+        <v>7.748351207030659</v>
       </c>
       <c r="I18" t="n">
         <v>27.62241461180321</v>
@@ -32332,13 +32332,13 @@
         <v>190.8832006938202</v>
       </c>
       <c r="P18" t="n">
-        <v>153.2005971170303</v>
+        <v>153.2005971170304</v>
       </c>
       <c r="Q18" t="n">
         <v>102.4105420206268</v>
       </c>
       <c r="R18" t="n">
-        <v>49.81183455346322</v>
+        <v>49.81183455346324</v>
       </c>
       <c r="S18" t="n">
         <v>14.90202877464796</v>
@@ -32347,7 +32347,7 @@
         <v>3.233757837993266</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0527816839715985</v>
+        <v>0.05278168397159851</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,22 +32384,22 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6726059400096592</v>
+        <v>0.6726059400096593</v>
       </c>
       <c r="H19" t="n">
-        <v>5.980078266631338</v>
+        <v>5.980078266631339</v>
       </c>
       <c r="I19" t="n">
         <v>20.22709499592685</v>
       </c>
       <c r="J19" t="n">
-        <v>47.5532399586829</v>
+        <v>47.55323995868291</v>
       </c>
       <c r="K19" t="n">
-        <v>78.14458103021312</v>
+        <v>78.14458103021313</v>
       </c>
       <c r="L19" t="n">
-        <v>99.99815948107245</v>
+        <v>99.99815948107246</v>
       </c>
       <c r="M19" t="n">
         <v>105.4340383962414</v>
@@ -32408,13 +32408,13 @@
         <v>102.9270526198418</v>
       </c>
       <c r="O19" t="n">
-        <v>95.06979232063804</v>
+        <v>95.06979232063807</v>
       </c>
       <c r="P19" t="n">
-        <v>81.34863114444093</v>
+        <v>81.34863114444094</v>
       </c>
       <c r="Q19" t="n">
-        <v>56.32157557662701</v>
+        <v>56.32157557662703</v>
       </c>
       <c r="R19" t="n">
         <v>30.24280890261613</v>
@@ -32469,40 +32469,40 @@
         <v>15.35634026753985</v>
       </c>
       <c r="I20" t="n">
-        <v>57.80791487018972</v>
+        <v>57.80791487018973</v>
       </c>
       <c r="J20" t="n">
         <v>127.2647562340643</v>
       </c>
       <c r="K20" t="n">
-        <v>190.7368796101133</v>
+        <v>190.7368796101134</v>
       </c>
       <c r="L20" t="n">
         <v>236.6259652649624</v>
       </c>
       <c r="M20" t="n">
-        <v>263.2919792996614</v>
+        <v>263.2919792996615</v>
       </c>
       <c r="N20" t="n">
         <v>267.5523187880196</v>
       </c>
       <c r="O20" t="n">
-        <v>252.6420677409941</v>
+        <v>252.6420677409942</v>
       </c>
       <c r="P20" t="n">
-        <v>215.6241597361226</v>
+        <v>215.6241597361227</v>
       </c>
       <c r="Q20" t="n">
         <v>161.9247640733597</v>
       </c>
       <c r="R20" t="n">
-        <v>94.19042688449659</v>
+        <v>94.1904268844966</v>
       </c>
       <c r="S20" t="n">
         <v>34.16893483183836</v>
       </c>
       <c r="T20" t="n">
-        <v>6.563884244711896</v>
+        <v>6.563884244711897</v>
       </c>
       <c r="U20" t="n">
         <v>0.119956765180343</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8022815963682969</v>
+        <v>0.802281596368297</v>
       </c>
       <c r="H21" t="n">
-        <v>7.748351207030658</v>
+        <v>7.748351207030659</v>
       </c>
       <c r="I21" t="n">
         <v>27.62241461180321</v>
@@ -32569,13 +32569,13 @@
         <v>190.8832006938202</v>
       </c>
       <c r="P21" t="n">
-        <v>153.2005971170303</v>
+        <v>153.2005971170304</v>
       </c>
       <c r="Q21" t="n">
         <v>102.4105420206268</v>
       </c>
       <c r="R21" t="n">
-        <v>49.81183455346322</v>
+        <v>49.81183455346324</v>
       </c>
       <c r="S21" t="n">
         <v>14.90202877464796</v>
@@ -32584,7 +32584,7 @@
         <v>3.233757837993266</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0527816839715985</v>
+        <v>0.05278168397159851</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,22 +32621,22 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6726059400096592</v>
+        <v>0.6726059400096593</v>
       </c>
       <c r="H22" t="n">
-        <v>5.980078266631338</v>
+        <v>5.980078266631339</v>
       </c>
       <c r="I22" t="n">
         <v>20.22709499592685</v>
       </c>
       <c r="J22" t="n">
-        <v>47.5532399586829</v>
+        <v>47.55323995868291</v>
       </c>
       <c r="K22" t="n">
-        <v>78.14458103021312</v>
+        <v>78.14458103021313</v>
       </c>
       <c r="L22" t="n">
-        <v>99.99815948107245</v>
+        <v>99.99815948107246</v>
       </c>
       <c r="M22" t="n">
         <v>105.4340383962414</v>
@@ -32645,13 +32645,13 @@
         <v>102.9270526198418</v>
       </c>
       <c r="O22" t="n">
-        <v>95.06979232063804</v>
+        <v>95.06979232063807</v>
       </c>
       <c r="P22" t="n">
-        <v>81.34863114444093</v>
+        <v>81.34863114444094</v>
       </c>
       <c r="Q22" t="n">
-        <v>56.32157557662701</v>
+        <v>56.32157557662703</v>
       </c>
       <c r="R22" t="n">
         <v>30.24280890261613</v>
@@ -32706,40 +32706,40 @@
         <v>15.35634026753985</v>
       </c>
       <c r="I23" t="n">
-        <v>57.80791487018972</v>
+        <v>57.80791487018973</v>
       </c>
       <c r="J23" t="n">
         <v>127.2647562340643</v>
       </c>
       <c r="K23" t="n">
-        <v>190.7368796101133</v>
+        <v>190.7368796101134</v>
       </c>
       <c r="L23" t="n">
         <v>236.6259652649624</v>
       </c>
       <c r="M23" t="n">
-        <v>263.2919792996614</v>
+        <v>263.2919792996615</v>
       </c>
       <c r="N23" t="n">
         <v>267.5523187880196</v>
       </c>
       <c r="O23" t="n">
-        <v>252.6420677409941</v>
+        <v>252.6420677409942</v>
       </c>
       <c r="P23" t="n">
-        <v>215.6241597361226</v>
+        <v>215.6241597361227</v>
       </c>
       <c r="Q23" t="n">
         <v>161.9247640733597</v>
       </c>
       <c r="R23" t="n">
-        <v>94.19042688449659</v>
+        <v>94.1904268844966</v>
       </c>
       <c r="S23" t="n">
         <v>34.16893483183836</v>
       </c>
       <c r="T23" t="n">
-        <v>6.563884244711896</v>
+        <v>6.563884244711897</v>
       </c>
       <c r="U23" t="n">
         <v>0.119956765180343</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8022815963682969</v>
+        <v>0.802281596368297</v>
       </c>
       <c r="H24" t="n">
-        <v>7.748351207030658</v>
+        <v>7.748351207030659</v>
       </c>
       <c r="I24" t="n">
         <v>27.62241461180321</v>
@@ -32806,13 +32806,13 @@
         <v>190.8832006938202</v>
       </c>
       <c r="P24" t="n">
-        <v>153.2005971170303</v>
+        <v>153.2005971170304</v>
       </c>
       <c r="Q24" t="n">
         <v>102.4105420206268</v>
       </c>
       <c r="R24" t="n">
-        <v>49.81183455346322</v>
+        <v>49.81183455346324</v>
       </c>
       <c r="S24" t="n">
         <v>14.90202877464796</v>
@@ -32821,7 +32821,7 @@
         <v>3.233757837993266</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0527816839715985</v>
+        <v>0.05278168397159851</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,22 +32858,22 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6726059400096592</v>
+        <v>0.6726059400096593</v>
       </c>
       <c r="H25" t="n">
-        <v>5.980078266631338</v>
+        <v>5.980078266631339</v>
       </c>
       <c r="I25" t="n">
         <v>20.22709499592685</v>
       </c>
       <c r="J25" t="n">
-        <v>47.5532399586829</v>
+        <v>47.55323995868291</v>
       </c>
       <c r="K25" t="n">
-        <v>78.14458103021312</v>
+        <v>78.14458103021313</v>
       </c>
       <c r="L25" t="n">
-        <v>99.99815948107245</v>
+        <v>99.99815948107246</v>
       </c>
       <c r="M25" t="n">
         <v>105.4340383962414</v>
@@ -32882,13 +32882,13 @@
         <v>102.9270526198418</v>
       </c>
       <c r="O25" t="n">
-        <v>95.06979232063804</v>
+        <v>95.06979232063807</v>
       </c>
       <c r="P25" t="n">
-        <v>81.34863114444093</v>
+        <v>81.34863114444094</v>
       </c>
       <c r="Q25" t="n">
-        <v>56.32157557662701</v>
+        <v>56.32157557662703</v>
       </c>
       <c r="R25" t="n">
         <v>30.24280890261613</v>
@@ -32943,40 +32943,40 @@
         <v>15.35634026753985</v>
       </c>
       <c r="I26" t="n">
-        <v>57.80791487018972</v>
+        <v>57.80791487018973</v>
       </c>
       <c r="J26" t="n">
         <v>127.2647562340643</v>
       </c>
       <c r="K26" t="n">
-        <v>190.7368796101133</v>
+        <v>190.7368796101134</v>
       </c>
       <c r="L26" t="n">
         <v>236.6259652649624</v>
       </c>
       <c r="M26" t="n">
-        <v>263.2919792996614</v>
+        <v>263.2919792996615</v>
       </c>
       <c r="N26" t="n">
         <v>267.5523187880196</v>
       </c>
       <c r="O26" t="n">
-        <v>252.6420677409941</v>
+        <v>252.6420677409942</v>
       </c>
       <c r="P26" t="n">
-        <v>215.6241597361226</v>
+        <v>215.6241597361227</v>
       </c>
       <c r="Q26" t="n">
         <v>161.9247640733597</v>
       </c>
       <c r="R26" t="n">
-        <v>94.19042688449659</v>
+        <v>94.1904268844966</v>
       </c>
       <c r="S26" t="n">
         <v>34.16893483183836</v>
       </c>
       <c r="T26" t="n">
-        <v>6.563884244711896</v>
+        <v>6.563884244711897</v>
       </c>
       <c r="U26" t="n">
         <v>0.119956765180343</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8022815963682969</v>
+        <v>0.802281596368297</v>
       </c>
       <c r="H27" t="n">
-        <v>7.748351207030658</v>
+        <v>7.748351207030659</v>
       </c>
       <c r="I27" t="n">
         <v>27.62241461180321</v>
@@ -33043,13 +33043,13 @@
         <v>190.8832006938202</v>
       </c>
       <c r="P27" t="n">
-        <v>153.2005971170303</v>
+        <v>153.2005971170304</v>
       </c>
       <c r="Q27" t="n">
         <v>102.4105420206268</v>
       </c>
       <c r="R27" t="n">
-        <v>49.81183455346322</v>
+        <v>49.81183455346324</v>
       </c>
       <c r="S27" t="n">
         <v>14.90202877464796</v>
@@ -33058,7 +33058,7 @@
         <v>3.233757837993266</v>
       </c>
       <c r="U27" t="n">
-        <v>0.0527816839715985</v>
+        <v>0.05278168397159851</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,22 +33095,22 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6726059400096592</v>
+        <v>0.6726059400096593</v>
       </c>
       <c r="H28" t="n">
-        <v>5.980078266631338</v>
+        <v>5.980078266631339</v>
       </c>
       <c r="I28" t="n">
         <v>20.22709499592685</v>
       </c>
       <c r="J28" t="n">
-        <v>47.5532399586829</v>
+        <v>47.55323995868291</v>
       </c>
       <c r="K28" t="n">
-        <v>78.14458103021312</v>
+        <v>78.14458103021313</v>
       </c>
       <c r="L28" t="n">
-        <v>99.99815948107245</v>
+        <v>99.99815948107246</v>
       </c>
       <c r="M28" t="n">
         <v>105.4340383962414</v>
@@ -33119,13 +33119,13 @@
         <v>102.9270526198418</v>
       </c>
       <c r="O28" t="n">
-        <v>95.06979232063804</v>
+        <v>95.06979232063807</v>
       </c>
       <c r="P28" t="n">
-        <v>81.34863114444093</v>
+        <v>81.34863114444094</v>
       </c>
       <c r="Q28" t="n">
-        <v>56.32157557662701</v>
+        <v>56.32157557662703</v>
       </c>
       <c r="R28" t="n">
         <v>30.24280890261613</v>
@@ -34704,19 +34704,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="M2" t="n">
+        <v>11.46040338013756</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="N2" t="n">
-        <v>11.46040338013756</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
       <c r="P2" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="K3" t="n">
         <v>11.94294668035388</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>11.46040338013756</v>
       </c>
       <c r="N3" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>11.46040338013756</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34862,19 +34862,19 @@
         <v>11.94294668035388</v>
       </c>
       <c r="L4" t="n">
+        <v>11.94294668035388</v>
+      </c>
+      <c r="M4" t="n">
         <v>11.46040338013756</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
         <v>11.94294668035388</v>
-      </c>
-      <c r="N4" t="n">
-        <v>11.94294668035388</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>11.46040338013756</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>11.94294668035388</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>11.94294668035388</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>11.94294668035388</v>
       </c>
       <c r="Q5" t="n">
-        <v>11.46040338013756</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,10 +35017,10 @@
         <v>11.94294668035388</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>11.46040338013756</v>
       </c>
       <c r="L6" t="n">
-        <v>11.46040338013756</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35029,7 +35029,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="L7" t="n">
         <v>11.94294668035388</v>
       </c>
       <c r="M7" t="n">
+        <v>11.46040338013756</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="N7" t="n">
-        <v>11.94294668035388</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
       <c r="P7" t="n">
-        <v>11.46040338013756</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.46040338013756</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -35184,13 +35184,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="O8" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>11.46040338013756</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>11.94294668035388</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>11.46040338013756</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
+      <c r="P9" t="n">
         <v>11.94294668035388</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>11.94294668035388</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>11.94294668035388</v>
@@ -35412,19 +35412,19 @@
         <v>199.9905585298276</v>
       </c>
       <c r="K11" t="n">
-        <v>11.91387563606662</v>
+        <v>433.3029119785808</v>
       </c>
       <c r="L11" t="n">
-        <v>265.5068985857682</v>
+        <v>383.0905364503155</v>
       </c>
       <c r="M11" t="n">
-        <v>76.13566480250233</v>
+        <v>76.13566480250239</v>
       </c>
       <c r="N11" t="n">
-        <v>615.6683555774596</v>
+        <v>81.15420461578952</v>
       </c>
       <c r="O11" t="n">
-        <v>560.7275066024425</v>
+        <v>560.7275066024426</v>
       </c>
       <c r="P11" t="n">
         <v>446.0856713078936</v>
@@ -35433,7 +35433,7 @@
         <v>257.3108789082455</v>
       </c>
       <c r="R11" t="n">
-        <v>4.458523245391405</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>17.55471475215609</v>
+        <v>361.3595228685083</v>
       </c>
       <c r="L12" t="n">
-        <v>393.7589402486698</v>
+        <v>61.62171742978444</v>
       </c>
       <c r="M12" t="n">
         <v>615.6683555774596</v>
       </c>
       <c r="N12" t="n">
-        <v>615.6683555774596</v>
+        <v>505.9813544521623</v>
       </c>
       <c r="O12" t="n">
-        <v>75.02375208270908</v>
+        <v>587.0447671424574</v>
       </c>
       <c r="P12" t="n">
-        <v>458.3479903248053</v>
+        <v>44.34639109288703</v>
       </c>
       <c r="Q12" t="n">
         <v>261.7758246323382</v>
@@ -35588,7 +35588,7 @@
         <v>144.9531601627619</v>
       </c>
       <c r="Q13" t="n">
-        <v>18.16960764377916</v>
+        <v>18.16960764377917</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,22 +35646,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>139.2415272517996</v>
+        <v>199.9905585298276</v>
       </c>
       <c r="K14" t="n">
-        <v>11.91387563606662</v>
+        <v>433.3029119785808</v>
       </c>
       <c r="L14" t="n">
         <v>588.0253320174334</v>
       </c>
       <c r="M14" t="n">
-        <v>76.13566480250233</v>
+        <v>128.5117481436299</v>
       </c>
       <c r="N14" t="n">
-        <v>615.6683555774596</v>
+        <v>81.15420461578952</v>
       </c>
       <c r="O14" t="n">
-        <v>560.7275066024425</v>
+        <v>560.7275066024426</v>
       </c>
       <c r="P14" t="n">
         <v>446.0856713078936</v>
@@ -35734,13 +35734,13 @@
         <v>543.7141663242813</v>
       </c>
       <c r="M15" t="n">
-        <v>87.79595630764302</v>
+        <v>330.7547479938012</v>
       </c>
       <c r="N15" t="n">
-        <v>615.6683555774596</v>
+        <v>101.9449307877463</v>
       </c>
       <c r="O15" t="n">
-        <v>316.2801340389024</v>
+        <v>587.0447671424574</v>
       </c>
       <c r="P15" t="n">
         <v>458.3479903248053</v>
@@ -35825,7 +35825,7 @@
         <v>144.9531601627619</v>
       </c>
       <c r="Q16" t="n">
-        <v>18.16960764377916</v>
+        <v>18.16960764377917</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>199.9905585298276</v>
       </c>
       <c r="K17" t="n">
-        <v>11.91387563606662</v>
+        <v>433.3029119785808</v>
       </c>
       <c r="L17" t="n">
         <v>588.0253320174334</v>
       </c>
       <c r="M17" t="n">
-        <v>429.2664309020104</v>
+        <v>507.3761534464562</v>
       </c>
       <c r="N17" t="n">
         <v>615.6683555774596</v>
       </c>
       <c r="O17" t="n">
-        <v>560.7275066024425</v>
+        <v>65.68727096087369</v>
       </c>
       <c r="P17" t="n">
-        <v>27.74735068496611</v>
+        <v>27.74735068496616</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>4.458523245391405</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>136.6607912380117</v>
       </c>
       <c r="K18" t="n">
         <v>361.3595228685083</v>
       </c>
       <c r="L18" t="n">
-        <v>543.7141663242813</v>
+        <v>442.8681498940868</v>
       </c>
       <c r="M18" t="n">
-        <v>87.79595630764302</v>
+        <v>87.79595630764305</v>
       </c>
       <c r="N18" t="n">
-        <v>615.6683555774596</v>
+        <v>101.9449307877463</v>
       </c>
       <c r="O18" t="n">
-        <v>370.9119417929002</v>
+        <v>587.0447671424574</v>
       </c>
       <c r="P18" t="n">
         <v>458.3479903248053</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>261.7758246323382</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36062,7 +36062,7 @@
         <v>144.9531601627619</v>
       </c>
       <c r="Q19" t="n">
-        <v>18.16960764377916</v>
+        <v>18.16960764377917</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>199.9905585298276</v>
       </c>
       <c r="K20" t="n">
-        <v>11.91387563606662</v>
+        <v>433.3029119785808</v>
       </c>
       <c r="L20" t="n">
         <v>588.0253320174334</v>
       </c>
       <c r="M20" t="n">
-        <v>615.6683555774596</v>
+        <v>124.0532248982383</v>
       </c>
       <c r="N20" t="n">
-        <v>615.6683555774596</v>
+        <v>81.15420461578952</v>
       </c>
       <c r="O20" t="n">
-        <v>317.0052615485752</v>
+        <v>560.7275066024426</v>
       </c>
       <c r="P20" t="n">
-        <v>27.74735068496611</v>
+        <v>446.0856713078936</v>
       </c>
       <c r="Q20" t="n">
-        <v>257.3108789082455</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>4.458523245391405</v>
+        <v>4.458523245391419</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>136.6607912380117</v>
+        <v>35.81477480781764</v>
       </c>
       <c r="K21" t="n">
-        <v>17.55471475215609</v>
+        <v>361.3595228685083</v>
       </c>
       <c r="L21" t="n">
-        <v>257.0981490106581</v>
+        <v>543.7141663242813</v>
       </c>
       <c r="M21" t="n">
-        <v>615.6683555774596</v>
+        <v>87.79595630764305</v>
       </c>
       <c r="N21" t="n">
-        <v>615.6683555774596</v>
+        <v>101.9449307877463</v>
       </c>
       <c r="O21" t="n">
-        <v>75.02375208270908</v>
+        <v>587.0447671424574</v>
       </c>
       <c r="P21" t="n">
         <v>458.3479903248053</v>
@@ -36299,7 +36299,7 @@
         <v>144.9531601627619</v>
       </c>
       <c r="Q22" t="n">
-        <v>18.16960764377916</v>
+        <v>18.16960764377917</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36372,7 +36372,7 @@
         <v>649.7052063513688</v>
       </c>
       <c r="O23" t="n">
-        <v>560.7275066024425</v>
+        <v>560.7275066024426</v>
       </c>
       <c r="P23" t="n">
         <v>446.0856713078936</v>
@@ -36381,7 +36381,7 @@
         <v>257.3108789082455</v>
       </c>
       <c r="R23" t="n">
-        <v>4.458523245391405</v>
+        <v>4.458523245391419</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>136.6607912380117</v>
       </c>
       <c r="K24" t="n">
-        <v>17.55471475215609</v>
+        <v>361.3595228685083</v>
       </c>
       <c r="L24" t="n">
-        <v>61.62171742978441</v>
+        <v>543.7141663242813</v>
       </c>
       <c r="M24" t="n">
-        <v>588.1387261120279</v>
+        <v>289.8274675224953</v>
       </c>
       <c r="N24" t="n">
         <v>725.0900174343658</v>
       </c>
       <c r="O24" t="n">
-        <v>587.0447671424574</v>
+        <v>75.02375208270911</v>
       </c>
       <c r="P24" t="n">
-        <v>458.3479903248053</v>
+        <v>44.34639109288703</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>261.7758246323382</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36536,7 +36536,7 @@
         <v>144.9531601627619</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.16960764377916</v>
+        <v>18.16960764377917</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36609,7 +36609,7 @@
         <v>649.7052063513688</v>
       </c>
       <c r="O26" t="n">
-        <v>560.7275066024425</v>
+        <v>560.7275066024426</v>
       </c>
       <c r="P26" t="n">
         <v>446.0856713078936</v>
@@ -36618,7 +36618,7 @@
         <v>257.3108789082455</v>
       </c>
       <c r="R26" t="n">
-        <v>4.458523245391405</v>
+        <v>4.458523245391419</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>136.6607912380117</v>
       </c>
       <c r="K27" t="n">
-        <v>17.55471475215609</v>
+        <v>361.3595228685083</v>
       </c>
       <c r="L27" t="n">
-        <v>61.62171742978441</v>
+        <v>543.7141663242813</v>
       </c>
       <c r="M27" t="n">
-        <v>588.1387261120279</v>
+        <v>87.79595630764305</v>
       </c>
       <c r="N27" t="n">
-        <v>725.0900174343658</v>
+        <v>101.9449307877463</v>
       </c>
       <c r="O27" t="n">
-        <v>587.0447671424574</v>
+        <v>486.1987507122631</v>
       </c>
       <c r="P27" t="n">
         <v>458.3479903248053</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>261.7758246323382</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36773,7 +36773,7 @@
         <v>144.9531601627619</v>
       </c>
       <c r="Q28" t="n">
-        <v>18.16960764377916</v>
+        <v>18.16960764377917</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>136.6607912380117</v>
       </c>
       <c r="K30" t="n">
         <v>361.3595228685083</v>
       </c>
       <c r="L30" t="n">
-        <v>61.62171742978441</v>
+        <v>543.7141663242813</v>
       </c>
       <c r="M30" t="n">
-        <v>244.3339179956757</v>
+        <v>87.79595630764302</v>
       </c>
       <c r="N30" t="n">
-        <v>725.0900174343658</v>
+        <v>101.9449307877462</v>
       </c>
       <c r="O30" t="n">
-        <v>587.0447671424574</v>
+        <v>486.1987507122631</v>
       </c>
       <c r="P30" t="n">
         <v>458.3479903248053</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>261.7758246323382</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,19 +37150,19 @@
         <v>136.6607912380117</v>
       </c>
       <c r="K33" t="n">
-        <v>17.55471475215609</v>
+        <v>361.3595228685083</v>
       </c>
       <c r="L33" t="n">
-        <v>181.2563751354389</v>
+        <v>543.7141663242813</v>
       </c>
       <c r="M33" t="n">
-        <v>693.212539182643</v>
+        <v>87.79595630764302</v>
       </c>
       <c r="N33" t="n">
         <v>101.9449307877462</v>
       </c>
       <c r="O33" t="n">
-        <v>587.0447671424574</v>
+        <v>486.1987507122631</v>
       </c>
       <c r="P33" t="n">
         <v>458.3479903248053</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>199.9905585298276</v>
       </c>
       <c r="K35" t="n">
         <v>433.3029119785808</v>
       </c>
       <c r="L35" t="n">
-        <v>466.9052646414006</v>
+        <v>588.0253320174334</v>
       </c>
       <c r="M35" t="n">
-        <v>76.13566480250233</v>
+        <v>361.7825816315622</v>
       </c>
       <c r="N35" t="n">
-        <v>615.6683555774595</v>
+        <v>81.15420461578947</v>
       </c>
       <c r="O35" t="n">
-        <v>560.7275066024425</v>
+        <v>65.68727096087366</v>
       </c>
       <c r="P35" t="n">
-        <v>27.74735068496611</v>
+        <v>446.0856713078936</v>
       </c>
       <c r="Q35" t="n">
         <v>257.3108789082455</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>4.458523245391405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,19 +37387,19 @@
         <v>136.6607912380117</v>
       </c>
       <c r="K36" t="n">
-        <v>17.55471475215609</v>
+        <v>361.3595228685083</v>
       </c>
       <c r="L36" t="n">
-        <v>272.9495332207258</v>
+        <v>543.7141663242813</v>
       </c>
       <c r="M36" t="n">
         <v>87.79595630764302</v>
       </c>
       <c r="N36" t="n">
-        <v>615.6683555774595</v>
+        <v>101.9449307877462</v>
       </c>
       <c r="O36" t="n">
-        <v>587.0447671424574</v>
+        <v>486.1987507122635</v>
       </c>
       <c r="P36" t="n">
         <v>458.3479903248053</v>
@@ -37542,25 +37542,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>199.9905585298276</v>
       </c>
       <c r="K38" t="n">
         <v>433.3029119785808</v>
       </c>
       <c r="L38" t="n">
-        <v>588.0253320174334</v>
+        <v>378.632013204924</v>
       </c>
       <c r="M38" t="n">
         <v>76.13566480250233</v>
       </c>
       <c r="N38" t="n">
-        <v>615.6683555774595</v>
+        <v>81.15420461578947</v>
       </c>
       <c r="O38" t="n">
-        <v>435.148915981018</v>
+        <v>560.7275066024425</v>
       </c>
       <c r="P38" t="n">
-        <v>27.74735068496611</v>
+        <v>446.0856713078936</v>
       </c>
       <c r="Q38" t="n">
         <v>257.3108789082455</v>
@@ -37627,13 +37627,13 @@
         <v>361.3595228685083</v>
       </c>
       <c r="L39" t="n">
-        <v>61.62171742978441</v>
+        <v>442.8681498940873</v>
       </c>
       <c r="M39" t="n">
-        <v>615.6683555774595</v>
+        <v>87.79595630764302</v>
       </c>
       <c r="N39" t="n">
-        <v>217.0947886145704</v>
+        <v>101.9449307877462</v>
       </c>
       <c r="O39" t="n">
         <v>587.0447671424574</v>
@@ -37642,7 +37642,7 @@
         <v>458.3479903248053</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>261.7758246323382</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>199.9905585298276</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>11.91387563606662</v>
       </c>
       <c r="L41" t="n">
-        <v>588.0253320174334</v>
+        <v>469.9559803609874</v>
       </c>
       <c r="M41" t="n">
         <v>76.13566480250233</v>
       </c>
       <c r="N41" t="n">
-        <v>615.6683555774595</v>
+        <v>615.6683555774596</v>
       </c>
       <c r="O41" t="n">
         <v>560.7275066024425</v>
       </c>
       <c r="P41" t="n">
-        <v>123.5672378762281</v>
+        <v>446.0856713078936</v>
       </c>
       <c r="Q41" t="n">
         <v>257.3108789082455</v>
       </c>
       <c r="R41" t="n">
-        <v>4.458523245391405</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,19 +37867,19 @@
         <v>543.7141663242813</v>
       </c>
       <c r="M42" t="n">
-        <v>615.6683555774595</v>
+        <v>330.7547479938008</v>
       </c>
       <c r="N42" t="n">
-        <v>492.8087470683442</v>
+        <v>101.9449307877462</v>
       </c>
       <c r="O42" t="n">
         <v>587.0447671424574</v>
       </c>
       <c r="P42" t="n">
-        <v>44.346391092887</v>
+        <v>458.3479903248053</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>261.7758246323382</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>199.9905585298276</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>433.3029119785808</v>
@@ -38025,22 +38025,22 @@
         <v>45.06575310184778</v>
       </c>
       <c r="M44" t="n">
-        <v>76.13566480250233</v>
+        <v>615.6683555774596</v>
       </c>
       <c r="N44" t="n">
-        <v>414.7204647188652</v>
+        <v>615.6683555774596</v>
       </c>
       <c r="O44" t="n">
         <v>560.7275066024425</v>
       </c>
       <c r="P44" t="n">
-        <v>446.0856713078936</v>
+        <v>167.3650503578071</v>
       </c>
       <c r="Q44" t="n">
-        <v>257.3108789082455</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>4.458523245391405</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,19 +38098,19 @@
         <v>136.6607912380117</v>
       </c>
       <c r="K45" t="n">
-        <v>260.5135064383137</v>
+        <v>361.3595228685083</v>
       </c>
       <c r="L45" t="n">
-        <v>543.7141663242813</v>
+        <v>441.1657401641219</v>
       </c>
       <c r="M45" t="n">
         <v>87.79595630764302</v>
       </c>
       <c r="N45" t="n">
-        <v>101.9449307877462</v>
+        <v>615.6683555774596</v>
       </c>
       <c r="O45" t="n">
-        <v>587.0447671424574</v>
+        <v>75.02375208270908</v>
       </c>
       <c r="P45" t="n">
         <v>458.3479903248053</v>
